--- a/Toddler Taxonomist/animal_list.xlsx
+++ b/Toddler Taxonomist/animal_list.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23117"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="0" windowWidth="28900" windowHeight="23560" tabRatio="500"/>
+    <workbookView xWindow="23460" yWindow="0" windowWidth="12680" windowHeight="22300" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="organisms" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2886" uniqueCount="955">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2886" uniqueCount="956">
   <si>
     <t>Common Name</t>
   </si>
@@ -2886,13 +2886,16 @@
   </si>
   <si>
     <t>The Lubber Grasshopper emits a foul-smelling and foul-tasting foamy secretion from the thorax when it is disturbed. It also lets off a loud hissing sound that can scare animals. Species of grasshoppers that change colour and behaviour at high population densities are called locusts.</t>
+  </si>
+  <si>
+    <t>Unlike other zebras, the mountain zebra has a dewlap, which is a flap of skin that hangs beneath its neck. Like all extant zebras, it is boldly striped in black and white and no two individuals look exactly alike. The stripes can be either black or dark brown and white. Their stripes cover their whole bodies except for their bellies.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2953,8 +2956,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2969,6 +2984,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -3007,7 +3028,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="585">
+  <cellStyleXfs count="593">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3593,8 +3614,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3609,8 +3638,14 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="187" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="568"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="585">
+  <cellStyles count="593">
     <cellStyle name="Bad" xfId="568" builtinId="27"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
@@ -3904,6 +3939,10 @@
     <cellStyle name="Followed Hyperlink" xfId="580" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="582" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="584" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="586" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="588" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="590" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="592" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -4194,6 +4233,10 @@
     <cellStyle name="Hyperlink" xfId="579" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="581" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="583" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="585" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="587" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="589" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="591" builtinId="8" hidden="1"/>
     <cellStyle name="Input" xfId="187" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -4527,10 +4570,10 @@
   <dimension ref="A1:AC84"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C15" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="Z48" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Y54" sqref="Y54"/>
+      <selection pane="bottomRight" activeCell="Z52" sqref="Z52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -9100,7 +9143,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="52" spans="1:29" ht="60">
+    <row r="52" spans="1:29" ht="75">
       <c r="A52" s="4" t="s">
         <v>459</v>
       </c>
@@ -9177,7 +9220,7 @@
         <v>514</v>
       </c>
       <c r="Z52" s="6" t="s">
-        <v>929</v>
+        <v>955</v>
       </c>
       <c r="AA52" s="2"/>
       <c r="AB52" t="s">
@@ -12050,8 +12093,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P84"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="F11" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+    <sheetView showRuler="0" topLeftCell="N72" workbookViewId="0">
+      <selection activeCell="O36" sqref="O36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -12489,7 +12532,7 @@
       <c r="K11" t="s">
         <v>407</v>
       </c>
-      <c r="M11" s="8" t="s">
+      <c r="M11" s="10" t="s">
         <v>40</v>
       </c>
       <c r="N11" t="s">
@@ -12589,7 +12632,7 @@
       <c r="K16" t="s">
         <v>415</v>
       </c>
-      <c r="M16" s="8" t="s">
+      <c r="M16" s="12" t="s">
         <v>49</v>
       </c>
       <c r="N16" t="s">
@@ -12609,7 +12652,7 @@
       <c r="K17" t="s">
         <v>417</v>
       </c>
-      <c r="M17" s="8" t="s">
+      <c r="M17" s="12" t="s">
         <v>53</v>
       </c>
       <c r="N17" t="s">
@@ -12626,7 +12669,7 @@
       <c r="K18" t="s">
         <v>447</v>
       </c>
-      <c r="M18" s="8" t="s">
+      <c r="M18" s="12" t="s">
         <v>53</v>
       </c>
       <c r="N18" t="s">
@@ -12643,7 +12686,7 @@
       <c r="K19" t="s">
         <v>419</v>
       </c>
-      <c r="M19" s="8" t="s">
+      <c r="M19" s="12" t="s">
         <v>53</v>
       </c>
       <c r="N19" t="s">
@@ -12660,7 +12703,7 @@
       <c r="K20" t="s">
         <v>596</v>
       </c>
-      <c r="M20" s="8" t="s">
+      <c r="M20" s="12" t="s">
         <v>58</v>
       </c>
       <c r="N20" t="s">
@@ -12677,7 +12720,7 @@
       <c r="K21" t="s">
         <v>423</v>
       </c>
-      <c r="M21" s="8" t="s">
+      <c r="M21" s="12" t="s">
         <v>58</v>
       </c>
       <c r="N21" t="s">
@@ -12694,7 +12737,7 @@
       <c r="K22" t="s">
         <v>613</v>
       </c>
-      <c r="M22" s="8" t="s">
+      <c r="M22" s="12" t="s">
         <v>58</v>
       </c>
       <c r="N22" t="s">
@@ -12815,7 +12858,7 @@
       <c r="K30" t="s">
         <v>441</v>
       </c>
-      <c r="M30" s="8" t="s">
+      <c r="M30" s="12" t="s">
         <v>216</v>
       </c>
       <c r="N30" t="s">
@@ -12905,7 +12948,7 @@
       <c r="N36" t="s">
         <v>268</v>
       </c>
-      <c r="O36" s="6" t="s">
+      <c r="O36" s="13" t="s">
         <v>951</v>
       </c>
     </row>
@@ -13010,7 +13053,7 @@
       </c>
     </row>
     <row r="45" spans="11:15" ht="90">
-      <c r="M45" s="8" t="s">
+      <c r="M45" s="11" t="s">
         <v>327</v>
       </c>
       <c r="N45" t="s">
@@ -13320,7 +13363,7 @@
       </c>
     </row>
     <row r="73" spans="13:16" ht="60">
-      <c r="M73" s="8" t="s">
+      <c r="M73" s="10" t="s">
         <v>662</v>
       </c>
       <c r="N73" t="s">

--- a/Toddler Taxonomist/animal_list.xlsx
+++ b/Toddler Taxonomist/animal_list.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2886" uniqueCount="956">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2886" uniqueCount="957">
   <si>
     <t>Common Name</t>
   </si>
@@ -2889,6 +2889,9 @@
   </si>
   <si>
     <t>Unlike other zebras, the mountain zebra has a dewlap, which is a flap of skin that hangs beneath its neck. Like all extant zebras, it is boldly striped in black and white and no two individuals look exactly alike. The stripes can be either black or dark brown and white. Their stripes cover their whole bodies except for their bellies.</t>
+  </si>
+  <si>
+    <t>Tarsiers are the only extant entirely carnivorous primates: they are primarily insectivorous, and catch insects by jumping at them. They are also known to prey on birds, snakes, lizards, and bats. Like all tarsiers, the Philippine tarsier's eyes are fixed in its skull; they cannot turn in their sockets. Instead, a special adaptation in the neck allows its round head to rotate 180 degrees.</t>
   </si>
 </sst>
 </file>
@@ -4570,10 +4573,10 @@
   <dimension ref="A1:AC84"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="Z48" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="Z63" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Z52" sqref="Z52"/>
+      <selection pane="bottomRight" activeCell="Z69" sqref="Z69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -10553,7 +10556,7 @@
         <v>626</v>
       </c>
       <c r="Z67" s="6" t="s">
-        <v>937</v>
+        <v>956</v>
       </c>
       <c r="AA67" s="2" t="s">
         <v>428</v>

--- a/Toddler Taxonomist/animal_list.xlsx
+++ b/Toddler Taxonomist/animal_list.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23117"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="23460" yWindow="0" windowWidth="12680" windowHeight="22300" tabRatio="500"/>
+    <workbookView xWindow="18140" yWindow="0" windowWidth="18000" windowHeight="22300" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="organisms" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2886" uniqueCount="957">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2886" uniqueCount="956">
   <si>
     <t>Common Name</t>
   </si>
@@ -1169,9 +1169,6 @@
     <t>lizard</t>
   </si>
   <si>
-    <t>ant</t>
-  </si>
-  <si>
     <t>rhinoceros</t>
   </si>
   <si>
@@ -1406,9 +1403,6 @@
     <t>Insect</t>
   </si>
   <si>
-    <t>Whale</t>
-  </si>
-  <si>
     <t>Antelope</t>
   </si>
   <si>
@@ -2892,6 +2886,9 @@
   </si>
   <si>
     <t>Tarsiers are the only extant entirely carnivorous primates: they are primarily insectivorous, and catch insects by jumping at them. They are also known to prey on birds, snakes, lizards, and bats. Like all tarsiers, the Philippine tarsier's eyes are fixed in its skull; they cannot turn in their sockets. Instead, a special adaptation in the neck allows its round head to rotate 180 degrees.</t>
+  </si>
+  <si>
+    <t>Orca</t>
   </si>
 </sst>
 </file>
@@ -4573,10 +4570,10 @@
   <dimension ref="A1:AC84"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="Z63" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="AB39" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Z69" sqref="Z69"/>
+      <selection pane="bottomRight" activeCell="AB35" sqref="AB35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4693,7 +4690,7 @@
         <v>369</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
     </row>
     <row r="2" spans="1:29" ht="90">
@@ -4773,16 +4770,16 @@
         <v>13</v>
       </c>
       <c r="Z2" s="6" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="AA2" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="AB2" t="s">
         <v>368</v>
       </c>
       <c r="AC2" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
     </row>
     <row r="3" spans="1:29" ht="60">
@@ -4862,16 +4859,16 @@
         <v>19</v>
       </c>
       <c r="Z3" s="6" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="AA3" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="AB3" t="s">
         <v>368</v>
       </c>
       <c r="AC3" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
     </row>
     <row r="4" spans="1:29" ht="105">
@@ -4951,16 +4948,16 @@
         <v>22</v>
       </c>
       <c r="Z4" s="6" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="AA4" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="AB4" t="s">
         <v>368</v>
       </c>
       <c r="AC4" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
     </row>
     <row r="5" spans="1:29" ht="75">
@@ -5040,16 +5037,16 @@
         <v>23</v>
       </c>
       <c r="Z5" s="6" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="AA5" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="AB5" t="s">
         <v>370</v>
       </c>
       <c r="AC5" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
     </row>
     <row r="6" spans="1:29" ht="75">
@@ -5129,16 +5126,16 @@
         <v>26</v>
       </c>
       <c r="Z6" s="6" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="AA6" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="AB6" t="s">
         <v>370</v>
       </c>
       <c r="AC6" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
     </row>
     <row r="7" spans="1:29" ht="75">
@@ -5218,16 +5215,16 @@
         <v>45</v>
       </c>
       <c r="Z7" s="6" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="AA7" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="AB7" t="s">
         <v>370</v>
       </c>
       <c r="AC7" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
     </row>
     <row r="8" spans="1:29" ht="60">
@@ -5307,16 +5304,16 @@
         <v>29</v>
       </c>
       <c r="Z8" s="6" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="AA8" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="AB8" t="s">
         <v>371</v>
       </c>
       <c r="AC8" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
     </row>
     <row r="9" spans="1:29" ht="75">
@@ -5396,16 +5393,16 @@
         <v>32</v>
       </c>
       <c r="Z9" s="6" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="AA9" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="AB9" t="s">
         <v>371</v>
       </c>
       <c r="AC9" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
     </row>
     <row r="10" spans="1:29" ht="75">
@@ -5485,16 +5482,16 @@
         <v>35</v>
       </c>
       <c r="Z10" s="6" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="AA10" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="AB10" t="s">
         <v>371</v>
       </c>
       <c r="AC10" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
     </row>
     <row r="11" spans="1:29" ht="75">
@@ -5574,16 +5571,16 @@
         <v>38</v>
       </c>
       <c r="Z11" s="6" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="AA11" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="AB11" t="s">
         <v>372</v>
       </c>
       <c r="AC11" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
     </row>
     <row r="12" spans="1:29" ht="45">
@@ -5660,19 +5657,19 @@
         <v>120</v>
       </c>
       <c r="Y12" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="Z12" s="6" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="AA12" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="AB12" t="s">
         <v>372</v>
       </c>
       <c r="AC12" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
     </row>
     <row r="13" spans="1:29" ht="60">
@@ -5749,19 +5746,19 @@
         <v>121</v>
       </c>
       <c r="Y13" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="Z13" s="6" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="AA13" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="AB13" t="s">
         <v>372</v>
       </c>
       <c r="AC13" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
     </row>
     <row r="14" spans="1:29" ht="75">
@@ -5841,10 +5838,10 @@
         <v>155</v>
       </c>
       <c r="Z14" s="6" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="AA14" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="AB14" t="s">
         <v>373</v>
@@ -5930,16 +5927,16 @@
         <v>50</v>
       </c>
       <c r="Z15" s="6" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="AA15" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="AB15" t="s">
         <v>373</v>
       </c>
       <c r="AC15" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
     </row>
     <row r="16" spans="1:29" ht="75">
@@ -5947,7 +5944,7 @@
         <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="C16" t="s">
         <v>49</v>
@@ -6019,16 +6016,16 @@
         <v>52</v>
       </c>
       <c r="Z16" s="6" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="AA16" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="AB16" t="s">
         <v>373</v>
       </c>
       <c r="AC16" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
     </row>
     <row r="17" spans="1:29" ht="75">
@@ -6108,16 +6105,16 @@
         <v>153</v>
       </c>
       <c r="Z17" s="6" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="AA17" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="AB17" t="s">
         <v>374</v>
       </c>
       <c r="AC17" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
     </row>
     <row r="18" spans="1:29" ht="60">
@@ -6197,16 +6194,16 @@
         <v>54</v>
       </c>
       <c r="Z18" s="6" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="AA18" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="AB18" t="s">
         <v>374</v>
       </c>
       <c r="AC18" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
     </row>
     <row r="19" spans="1:29" ht="60">
@@ -6286,16 +6283,16 @@
         <v>56</v>
       </c>
       <c r="Z19" s="6" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="AA19" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="AB19" t="s">
         <v>374</v>
       </c>
       <c r="AC19" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
     </row>
     <row r="20" spans="1:29" ht="75">
@@ -6375,16 +6372,16 @@
         <v>59</v>
       </c>
       <c r="Z20" s="6" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="AA20" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="AB20" t="s">
         <v>375</v>
       </c>
       <c r="AC20" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
     </row>
     <row r="21" spans="1:29" ht="90">
@@ -6464,7 +6461,7 @@
         <v>157</v>
       </c>
       <c r="Z21" s="6" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="AA21" t="s">
         <v>156</v>
@@ -6473,7 +6470,7 @@
         <v>375</v>
       </c>
       <c r="AC21" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="22" spans="1:29" ht="75">
@@ -6553,16 +6550,16 @@
         <v>61</v>
       </c>
       <c r="Z22" s="6" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="AA22" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="AB22" t="s">
         <v>375</v>
       </c>
       <c r="AC22" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="23" spans="1:29" ht="75">
@@ -6642,16 +6639,16 @@
         <v>87</v>
       </c>
       <c r="Z23" s="6" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="AA23" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="AB23" t="s">
         <v>376</v>
       </c>
       <c r="AC23" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="24" spans="1:29" ht="75">
@@ -6731,7 +6728,7 @@
         <v>167</v>
       </c>
       <c r="Z24" s="6" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="AA24" t="s">
         <v>168</v>
@@ -6740,7 +6737,7 @@
         <v>377</v>
       </c>
       <c r="AC24" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="25" spans="1:29" ht="75">
@@ -6820,7 +6817,7 @@
         <v>178</v>
       </c>
       <c r="Z25" s="6" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="AA25" t="s">
         <v>179</v>
@@ -6829,7 +6826,7 @@
         <v>378</v>
       </c>
       <c r="AC25" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
     </row>
     <row r="26" spans="1:29" ht="75">
@@ -6909,7 +6906,7 @@
         <v>189</v>
       </c>
       <c r="Z26" s="6" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="AA26" t="s">
         <v>188</v>
@@ -6918,7 +6915,7 @@
         <v>378</v>
       </c>
       <c r="AC26" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
     </row>
     <row r="27" spans="1:29" ht="90">
@@ -6998,7 +6995,7 @@
         <v>195</v>
       </c>
       <c r="Z27" s="6" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="AA27" t="s">
         <v>192</v>
@@ -7007,7 +7004,7 @@
         <v>378</v>
       </c>
       <c r="AC27" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
     </row>
     <row r="28" spans="1:29" ht="75">
@@ -7087,7 +7084,7 @@
         <v>203</v>
       </c>
       <c r="Z28" s="6" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="AA28" t="s">
         <v>202</v>
@@ -7096,7 +7093,7 @@
         <v>379</v>
       </c>
       <c r="AC28" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
     </row>
     <row r="29" spans="1:29" ht="75">
@@ -7176,7 +7173,7 @@
         <v>213</v>
       </c>
       <c r="Z29" s="6" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="AA29" t="s">
         <v>212</v>
@@ -7185,7 +7182,7 @@
         <v>377</v>
       </c>
       <c r="AC29" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
     </row>
     <row r="30" spans="1:29" ht="60">
@@ -7265,7 +7262,7 @@
         <v>222</v>
       </c>
       <c r="Z30" s="6" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="AA30" t="s">
         <v>214</v>
@@ -7274,7 +7271,7 @@
         <v>380</v>
       </c>
       <c r="AC30" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
     </row>
     <row r="31" spans="1:29" ht="75">
@@ -7354,7 +7351,7 @@
         <v>226</v>
       </c>
       <c r="Z31" s="6" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="AA31" t="s">
         <v>227</v>
@@ -7363,7 +7360,7 @@
         <v>380</v>
       </c>
       <c r="AC31" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
     </row>
     <row r="32" spans="1:29" ht="75">
@@ -7443,7 +7440,7 @@
         <v>237</v>
       </c>
       <c r="Z32" s="6" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="AA32" t="s">
         <v>238</v>
@@ -7452,7 +7449,7 @@
         <v>381</v>
       </c>
       <c r="AC32" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
     </row>
     <row r="33" spans="1:29" ht="60">
@@ -7529,10 +7526,10 @@
         <v>239</v>
       </c>
       <c r="Y33" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="Z33" s="6" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="AA33" t="s">
         <v>256</v>
@@ -7541,12 +7538,12 @@
         <v>381</v>
       </c>
       <c r="AC33" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
     </row>
     <row r="34" spans="1:29" ht="60">
       <c r="A34" s="4" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B34" t="s">
         <v>244</v>
@@ -7621,21 +7618,21 @@
         <v>254</v>
       </c>
       <c r="Z34" s="6" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="AA34" t="s">
         <v>255</v>
       </c>
       <c r="AB34" t="s">
-        <v>382</v>
+        <v>527</v>
       </c>
       <c r="AC34" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
     </row>
     <row r="35" spans="1:29" ht="75">
       <c r="A35" s="4" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B35" t="s">
         <v>257</v>
@@ -7710,21 +7707,21 @@
         <v>258</v>
       </c>
       <c r="Z35" s="6" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="AA35" t="s">
         <v>259</v>
       </c>
       <c r="AB35" t="s">
-        <v>382</v>
+        <v>527</v>
       </c>
       <c r="AC35" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
     </row>
     <row r="36" spans="1:29" ht="60">
       <c r="A36" s="4" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B36" t="s">
         <v>266</v>
@@ -7799,16 +7796,16 @@
         <v>269</v>
       </c>
       <c r="Z36" s="6" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="AA36" t="s">
         <v>270</v>
       </c>
       <c r="AB36" t="s">
-        <v>382</v>
+        <v>527</v>
       </c>
       <c r="AC36" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
     </row>
     <row r="37" spans="1:29" ht="90">
@@ -7885,19 +7882,19 @@
         <v>276</v>
       </c>
       <c r="Y37" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="Z37" s="6" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="AA37" t="s">
         <v>277</v>
       </c>
       <c r="AB37" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AC37" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
     </row>
     <row r="38" spans="1:29" ht="75">
@@ -7977,16 +7974,16 @@
         <v>281</v>
       </c>
       <c r="Z38" s="6" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="AA38" t="s">
         <v>282</v>
       </c>
       <c r="AB38" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AC38" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
     </row>
     <row r="39" spans="1:29" ht="60">
@@ -8063,19 +8060,19 @@
         <v>286</v>
       </c>
       <c r="Y39" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="Z39" s="6" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="AA39" t="s">
         <v>287</v>
       </c>
       <c r="AB39" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AC39" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
     </row>
     <row r="40" spans="1:29" ht="90">
@@ -8155,16 +8152,16 @@
         <v>292</v>
       </c>
       <c r="Z40" s="6" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="AA40" t="s">
         <v>293</v>
       </c>
       <c r="AB40" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AC40" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
     </row>
     <row r="41" spans="1:29" ht="45">
@@ -8241,10 +8238,10 @@
         <v>300</v>
       </c>
       <c r="Y41" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="Z41" s="6" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="AA41" t="s">
         <v>301</v>
@@ -8253,7 +8250,7 @@
         <v>377</v>
       </c>
       <c r="AC41" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
     </row>
     <row r="42" spans="1:29" ht="75">
@@ -8333,7 +8330,7 @@
         <v>309</v>
       </c>
       <c r="Z42" s="6" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="AA42" t="s">
         <v>310</v>
@@ -8342,7 +8339,7 @@
         <v>377</v>
       </c>
       <c r="AC42" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
     </row>
     <row r="43" spans="1:29" ht="75">
@@ -8422,7 +8419,7 @@
         <v>315</v>
       </c>
       <c r="Z43" s="6" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="AA43" t="s">
         <v>316</v>
@@ -8431,7 +8428,7 @@
         <v>377</v>
       </c>
       <c r="AC43" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
     </row>
     <row r="44" spans="1:29" ht="60">
@@ -8511,16 +8508,16 @@
         <v>324</v>
       </c>
       <c r="Z44" s="6" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="AA44" t="s">
         <v>325</v>
       </c>
       <c r="AB44" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AC44" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="45" spans="1:29" ht="90">
@@ -8600,105 +8597,105 @@
         <v>331</v>
       </c>
       <c r="Z45" s="6" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="AA45" t="s">
         <v>326</v>
       </c>
       <c r="AB45" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AC45" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
     </row>
     <row r="46" spans="1:29" ht="90">
       <c r="A46" s="4" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B46" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C46" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="D46" t="s">
         <v>72</v>
       </c>
       <c r="E46" t="s">
+        <v>466</v>
+      </c>
+      <c r="F46" t="s">
+        <v>467</v>
+      </c>
+      <c r="G46" t="s">
+        <v>106</v>
+      </c>
+      <c r="H46" t="s">
+        <v>106</v>
+      </c>
+      <c r="I46" t="s">
+        <v>106</v>
+      </c>
+      <c r="J46" t="s">
         <v>468</v>
       </c>
-      <c r="F46" t="s">
+      <c r="K46" t="s">
+        <v>106</v>
+      </c>
+      <c r="L46" t="s">
         <v>469</v>
       </c>
-      <c r="G46" t="s">
-        <v>106</v>
-      </c>
-      <c r="H46" t="s">
-        <v>106</v>
-      </c>
-      <c r="I46" t="s">
-        <v>106</v>
-      </c>
-      <c r="J46" t="s">
+      <c r="M46" t="s">
+        <v>106</v>
+      </c>
+      <c r="N46" t="s">
+        <v>385</v>
+      </c>
+      <c r="O46" t="s">
         <v>470</v>
       </c>
-      <c r="K46" t="s">
-        <v>106</v>
-      </c>
-      <c r="L46" t="s">
+      <c r="P46" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>15</v>
+      </c>
+      <c r="R46" t="s">
+        <v>15</v>
+      </c>
+      <c r="S46" t="s">
+        <v>15</v>
+      </c>
+      <c r="T46" t="s">
+        <v>15</v>
+      </c>
+      <c r="U46" t="s">
+        <v>15</v>
+      </c>
+      <c r="V46" t="s">
+        <v>15</v>
+      </c>
+      <c r="W46" t="s">
+        <v>15</v>
+      </c>
+      <c r="X46" t="s">
         <v>471</v>
       </c>
-      <c r="M46" t="s">
-        <v>106</v>
-      </c>
-      <c r="N46" t="s">
+      <c r="Y46" t="s">
+        <v>389</v>
+      </c>
+      <c r="Z46" s="6" t="s">
+        <v>922</v>
+      </c>
+      <c r="AA46" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="O46" t="s">
-        <v>472</v>
-      </c>
-      <c r="P46" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q46" t="s">
-        <v>15</v>
-      </c>
-      <c r="R46" t="s">
-        <v>15</v>
-      </c>
-      <c r="S46" t="s">
-        <v>15</v>
-      </c>
-      <c r="T46" t="s">
-        <v>15</v>
-      </c>
-      <c r="U46" t="s">
-        <v>15</v>
-      </c>
-      <c r="V46" t="s">
-        <v>15</v>
-      </c>
-      <c r="W46" t="s">
-        <v>15</v>
-      </c>
-      <c r="X46" t="s">
-        <v>473</v>
-      </c>
-      <c r="Y46" t="s">
-        <v>390</v>
-      </c>
-      <c r="Z46" s="6" t="s">
-        <v>924</v>
-      </c>
-      <c r="AA46" s="2" t="s">
-        <v>387</v>
-      </c>
       <c r="AB46" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="AC46" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
     </row>
     <row r="47" spans="1:29" ht="75">
@@ -8706,10 +8703,10 @@
         <v>158</v>
       </c>
       <c r="B47" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C47" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="D47" t="s">
         <v>72</v>
@@ -8730,75 +8727,75 @@
         <v>106</v>
       </c>
       <c r="J47" t="s">
+        <v>473</v>
+      </c>
+      <c r="K47" t="s">
+        <v>106</v>
+      </c>
+      <c r="L47" t="s">
+        <v>474</v>
+      </c>
+      <c r="M47" t="s">
+        <v>106</v>
+      </c>
+      <c r="N47" t="s">
         <v>475</v>
       </c>
-      <c r="K47" t="s">
-        <v>106</v>
-      </c>
-      <c r="L47" t="s">
+      <c r="O47" t="s">
         <v>476</v>
       </c>
-      <c r="M47" t="s">
-        <v>106</v>
-      </c>
-      <c r="N47" t="s">
+      <c r="P47" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>15</v>
+      </c>
+      <c r="R47" t="s">
+        <v>15</v>
+      </c>
+      <c r="S47" t="s">
+        <v>15</v>
+      </c>
+      <c r="T47" t="s">
+        <v>15</v>
+      </c>
+      <c r="U47" t="s">
+        <v>15</v>
+      </c>
+      <c r="V47" t="s">
+        <v>15</v>
+      </c>
+      <c r="W47" t="s">
+        <v>15</v>
+      </c>
+      <c r="X47" t="s">
         <v>477</v>
       </c>
-      <c r="O47" t="s">
-        <v>478</v>
-      </c>
-      <c r="P47" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q47" t="s">
-        <v>15</v>
-      </c>
-      <c r="R47" t="s">
-        <v>15</v>
-      </c>
-      <c r="S47" t="s">
-        <v>15</v>
-      </c>
-      <c r="T47" t="s">
-        <v>15</v>
-      </c>
-      <c r="U47" t="s">
-        <v>15</v>
-      </c>
-      <c r="V47" t="s">
-        <v>15</v>
-      </c>
-      <c r="W47" t="s">
-        <v>15</v>
-      </c>
-      <c r="X47" t="s">
-        <v>479</v>
-      </c>
       <c r="Y47" t="s">
+        <v>390</v>
+      </c>
+      <c r="Z47" s="6" t="s">
+        <v>923</v>
+      </c>
+      <c r="AA47" s="2" t="s">
         <v>391</v>
-      </c>
-      <c r="Z47" s="6" t="s">
-        <v>925</v>
-      </c>
-      <c r="AA47" s="2" t="s">
-        <v>392</v>
       </c>
       <c r="AB47" t="s">
         <v>377</v>
       </c>
       <c r="AC47" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
     </row>
     <row r="48" spans="1:29" ht="75">
       <c r="A48" s="4" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B48" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C48" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="D48" t="s">
         <v>72</v>
@@ -8819,22 +8816,22 @@
         <v>106</v>
       </c>
       <c r="J48" t="s">
+        <v>494</v>
+      </c>
+      <c r="K48" t="s">
+        <v>106</v>
+      </c>
+      <c r="L48" t="s">
+        <v>495</v>
+      </c>
+      <c r="M48" t="s">
+        <v>106</v>
+      </c>
+      <c r="N48" t="s">
         <v>496</v>
       </c>
-      <c r="K48" t="s">
-        <v>106</v>
-      </c>
-      <c r="L48" t="s">
+      <c r="O48" t="s">
         <v>497</v>
-      </c>
-      <c r="M48" t="s">
-        <v>106</v>
-      </c>
-      <c r="N48" t="s">
-        <v>498</v>
-      </c>
-      <c r="O48" t="s">
-        <v>499</v>
       </c>
       <c r="P48" t="s">
         <v>106</v>
@@ -8861,33 +8858,33 @@
         <v>15</v>
       </c>
       <c r="X48" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="Y48" t="s">
+        <v>393</v>
+      </c>
+      <c r="Z48" s="6" t="s">
+        <v>924</v>
+      </c>
+      <c r="AA48" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="Z48" s="6" t="s">
-        <v>926</v>
-      </c>
-      <c r="AA48" s="2" t="s">
-        <v>395</v>
-      </c>
       <c r="AB48" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="AC48" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
     </row>
     <row r="49" spans="1:29" ht="75">
       <c r="A49" s="4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B49" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C49" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D49" t="s">
         <v>72</v>
@@ -8908,22 +8905,22 @@
         <v>106</v>
       </c>
       <c r="J49" t="s">
+        <v>499</v>
+      </c>
+      <c r="K49" t="s">
+        <v>106</v>
+      </c>
+      <c r="L49" t="s">
+        <v>500</v>
+      </c>
+      <c r="M49" t="s">
+        <v>106</v>
+      </c>
+      <c r="N49" t="s">
         <v>501</v>
       </c>
-      <c r="K49" t="s">
-        <v>106</v>
-      </c>
-      <c r="L49" t="s">
+      <c r="O49" t="s">
         <v>502</v>
-      </c>
-      <c r="M49" t="s">
-        <v>106</v>
-      </c>
-      <c r="N49" t="s">
-        <v>503</v>
-      </c>
-      <c r="O49" t="s">
-        <v>504</v>
       </c>
       <c r="P49" t="s">
         <v>106</v>
@@ -8950,33 +8947,33 @@
         <v>15</v>
       </c>
       <c r="X49" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="Y49" t="s">
+        <v>396</v>
+      </c>
+      <c r="Z49" s="6" t="s">
+        <v>925</v>
+      </c>
+      <c r="AA49" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="Z49" s="6" t="s">
-        <v>927</v>
-      </c>
-      <c r="AA49" s="2" t="s">
-        <v>398</v>
-      </c>
       <c r="AB49" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="AC49" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="50" spans="1:29" ht="75">
       <c r="A50" s="4" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B50" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C50" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="D50" t="s">
         <v>72</v>
@@ -9012,7 +9009,7 @@
         <v>105</v>
       </c>
       <c r="O50" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="P50" t="s">
         <v>106</v>
@@ -9039,33 +9036,33 @@
         <v>15</v>
       </c>
       <c r="X50" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="Y50" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="Z50" s="6" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="AA50" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AB50" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="AC50" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="51" spans="1:29" ht="75">
       <c r="A51" s="4" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B51" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C51" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="D51" t="s">
         <v>72</v>
@@ -9101,7 +9098,7 @@
         <v>105</v>
       </c>
       <c r="O51" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="P51" t="s">
         <v>106</v>
@@ -9128,33 +9125,33 @@
         <v>15</v>
       </c>
       <c r="X51" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="Y51" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="Z51" s="6" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="AA51" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AB51" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="AC51" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="52" spans="1:29" ht="75">
       <c r="A52" s="4" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B52" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C52" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="D52" t="s">
         <v>72</v>
@@ -9190,7 +9187,7 @@
         <v>105</v>
       </c>
       <c r="O52" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="P52" t="s">
         <v>106</v>
@@ -9217,20 +9214,20 @@
         <v>15</v>
       </c>
       <c r="X52" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="Y52" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="Z52" s="6" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="AA52" s="2"/>
       <c r="AB52" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="AC52" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
     </row>
     <row r="53" spans="1:29" ht="90">
@@ -9238,10 +9235,10 @@
         <v>158</v>
       </c>
       <c r="B53" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C53" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="D53" t="s">
         <v>72</v>
@@ -9262,23 +9259,23 @@
         <v>106</v>
       </c>
       <c r="J53" t="s">
+        <v>521</v>
+      </c>
+      <c r="K53" t="s">
+        <v>106</v>
+      </c>
+      <c r="L53" t="s">
+        <v>522</v>
+      </c>
+      <c r="M53" t="s">
+        <v>106</v>
+      </c>
+      <c r="N53" t="s">
         <v>523</v>
       </c>
-      <c r="K53" t="s">
-        <v>106</v>
-      </c>
-      <c r="L53" t="s">
+      <c r="O53" t="s">
         <v>524</v>
       </c>
-      <c r="M53" t="s">
-        <v>106</v>
-      </c>
-      <c r="N53" t="s">
-        <v>525</v>
-      </c>
-      <c r="O53" t="s">
-        <v>526</v>
-      </c>
       <c r="P53" t="s">
         <v>106</v>
       </c>
@@ -9304,33 +9301,33 @@
         <v>15</v>
       </c>
       <c r="X53" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="Y53" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="Z53" s="6" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="AA53" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AB53" t="s">
         <v>377</v>
       </c>
       <c r="AC53" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
     </row>
     <row r="54" spans="1:29" ht="60">
       <c r="A54" s="4" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B54" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="C54" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D54" t="s">
         <v>72</v>
@@ -9351,22 +9348,22 @@
         <v>106</v>
       </c>
       <c r="J54" t="s">
+        <v>530</v>
+      </c>
+      <c r="K54" t="s">
+        <v>106</v>
+      </c>
+      <c r="L54" t="s">
+        <v>531</v>
+      </c>
+      <c r="M54" t="s">
+        <v>106</v>
+      </c>
+      <c r="N54" t="s">
         <v>532</v>
       </c>
-      <c r="K54" t="s">
-        <v>106</v>
-      </c>
-      <c r="L54" t="s">
+      <c r="O54" t="s">
         <v>533</v>
-      </c>
-      <c r="M54" t="s">
-        <v>106</v>
-      </c>
-      <c r="N54" t="s">
-        <v>534</v>
-      </c>
-      <c r="O54" t="s">
-        <v>535</v>
       </c>
       <c r="P54" t="s">
         <v>106</v>
@@ -9393,33 +9390,33 @@
         <v>15</v>
       </c>
       <c r="X54" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="Y54" t="s">
+        <v>525</v>
+      </c>
+      <c r="Z54" s="6" t="s">
+        <v>952</v>
+      </c>
+      <c r="AA54" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="AB54" t="s">
         <v>527</v>
       </c>
-      <c r="Z54" s="6" t="s">
-        <v>954</v>
-      </c>
-      <c r="AA54" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="AB54" t="s">
-        <v>529</v>
-      </c>
       <c r="AC54" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
     </row>
     <row r="55" spans="1:29" ht="60">
       <c r="A55" s="4" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B55" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C55" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="D55" t="s">
         <v>72</v>
@@ -9440,22 +9437,22 @@
         <v>106</v>
       </c>
       <c r="J55" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="K55" t="s">
         <v>106</v>
       </c>
       <c r="L55" t="s">
+        <v>537</v>
+      </c>
+      <c r="M55" t="s">
+        <v>538</v>
+      </c>
+      <c r="N55" t="s">
         <v>539</v>
       </c>
-      <c r="M55" t="s">
+      <c r="O55" t="s">
         <v>540</v>
-      </c>
-      <c r="N55" t="s">
-        <v>541</v>
-      </c>
-      <c r="O55" t="s">
-        <v>542</v>
       </c>
       <c r="P55" t="s">
         <v>106</v>
@@ -9482,33 +9479,33 @@
         <v>15</v>
       </c>
       <c r="X55" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="Y55" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="Z55" s="6" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="AA55" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="AB55" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="AC55" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
     </row>
     <row r="56" spans="1:29" ht="90">
       <c r="A56" s="4" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B56" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C56" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="D56" t="s">
         <v>72</v>
@@ -9529,22 +9526,22 @@
         <v>106</v>
       </c>
       <c r="J56" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="K56" t="s">
+        <v>546</v>
+      </c>
+      <c r="L56" t="s">
+        <v>547</v>
+      </c>
+      <c r="M56" t="s">
+        <v>106</v>
+      </c>
+      <c r="N56" t="s">
         <v>548</v>
       </c>
-      <c r="L56" t="s">
+      <c r="O56" t="s">
         <v>549</v>
-      </c>
-      <c r="M56" t="s">
-        <v>106</v>
-      </c>
-      <c r="N56" t="s">
-        <v>550</v>
-      </c>
-      <c r="O56" t="s">
-        <v>551</v>
       </c>
       <c r="P56" t="s">
         <v>106</v>
@@ -9571,33 +9568,33 @@
         <v>14</v>
       </c>
       <c r="X56" t="s">
+        <v>543</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>544</v>
+      </c>
+      <c r="Z56" s="6" t="s">
+        <v>929</v>
+      </c>
+      <c r="AA56" s="2" t="s">
         <v>545</v>
       </c>
-      <c r="Y56" t="s">
-        <v>546</v>
-      </c>
-      <c r="Z56" s="6" t="s">
-        <v>931</v>
-      </c>
-      <c r="AA56" s="2" t="s">
-        <v>547</v>
-      </c>
       <c r="AB56" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="AC56" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
     </row>
     <row r="57" spans="1:29" ht="60">
       <c r="A57" s="4" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B57" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C57" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D57" t="s">
         <v>72</v>
@@ -9618,22 +9615,22 @@
         <v>106</v>
       </c>
       <c r="J57" t="s">
+        <v>551</v>
+      </c>
+      <c r="K57" t="s">
+        <v>106</v>
+      </c>
+      <c r="L57" t="s">
+        <v>552</v>
+      </c>
+      <c r="M57" t="s">
+        <v>106</v>
+      </c>
+      <c r="N57" t="s">
         <v>553</v>
       </c>
-      <c r="K57" t="s">
-        <v>106</v>
-      </c>
-      <c r="L57" t="s">
+      <c r="O57" t="s">
         <v>554</v>
-      </c>
-      <c r="M57" t="s">
-        <v>106</v>
-      </c>
-      <c r="N57" t="s">
-        <v>555</v>
-      </c>
-      <c r="O57" t="s">
-        <v>556</v>
       </c>
       <c r="P57" t="s">
         <v>106</v>
@@ -9660,22 +9657,22 @@
         <v>15</v>
       </c>
       <c r="X57" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="Y57" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="Z57" s="6" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="AA57" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="AB57" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="AC57" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
     </row>
     <row r="58" spans="1:29" ht="45">
@@ -9683,10 +9680,10 @@
         <v>158</v>
       </c>
       <c r="B58" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C58" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="D58" t="s">
         <v>72</v>
@@ -9707,64 +9704,64 @@
         <v>106</v>
       </c>
       <c r="J58" t="s">
+        <v>558</v>
+      </c>
+      <c r="K58" t="s">
+        <v>106</v>
+      </c>
+      <c r="L58" t="s">
+        <v>559</v>
+      </c>
+      <c r="M58" t="s">
+        <v>106</v>
+      </c>
+      <c r="N58" t="s">
         <v>560</v>
       </c>
-      <c r="K58" t="s">
-        <v>106</v>
-      </c>
-      <c r="L58" t="s">
+      <c r="O58" t="s">
         <v>561</v>
       </c>
-      <c r="M58" t="s">
-        <v>106</v>
-      </c>
-      <c r="N58" t="s">
+      <c r="P58" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>15</v>
+      </c>
+      <c r="R58" t="s">
+        <v>15</v>
+      </c>
+      <c r="S58" t="s">
+        <v>15</v>
+      </c>
+      <c r="T58" t="s">
+        <v>15</v>
+      </c>
+      <c r="U58" t="s">
+        <v>15</v>
+      </c>
+      <c r="V58" t="s">
+        <v>15</v>
+      </c>
+      <c r="W58" t="s">
+        <v>15</v>
+      </c>
+      <c r="X58" t="s">
         <v>562</v>
       </c>
-      <c r="O58" t="s">
+      <c r="Y58" t="s">
         <v>563</v>
       </c>
-      <c r="P58" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q58" t="s">
-        <v>15</v>
-      </c>
-      <c r="R58" t="s">
-        <v>15</v>
-      </c>
-      <c r="S58" t="s">
-        <v>15</v>
-      </c>
-      <c r="T58" t="s">
-        <v>15</v>
-      </c>
-      <c r="U58" t="s">
-        <v>15</v>
-      </c>
-      <c r="V58" t="s">
-        <v>15</v>
-      </c>
-      <c r="W58" t="s">
-        <v>15</v>
-      </c>
-      <c r="X58" t="s">
-        <v>564</v>
-      </c>
-      <c r="Y58" t="s">
+      <c r="Z58" s="6" t="s">
         <v>565</v>
       </c>
-      <c r="Z58" s="6" t="s">
-        <v>567</v>
-      </c>
       <c r="AA58" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="AB58" t="s">
         <v>377</v>
       </c>
       <c r="AC58" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
     </row>
     <row r="59" spans="1:29" ht="90">
@@ -9772,10 +9769,10 @@
         <v>158</v>
       </c>
       <c r="B59" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C59" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="D59" t="s">
         <v>72</v>
@@ -9796,64 +9793,64 @@
         <v>106</v>
       </c>
       <c r="J59" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="K59" t="s">
         <v>106</v>
       </c>
       <c r="L59" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="M59" t="s">
         <v>106</v>
       </c>
       <c r="N59" t="s">
+        <v>567</v>
+      </c>
+      <c r="O59" t="s">
+        <v>568</v>
+      </c>
+      <c r="P59" t="s">
         <v>569</v>
       </c>
-      <c r="O59" t="s">
+      <c r="Q59" t="s">
+        <v>15</v>
+      </c>
+      <c r="R59" t="s">
+        <v>15</v>
+      </c>
+      <c r="S59" t="s">
+        <v>15</v>
+      </c>
+      <c r="T59" t="s">
+        <v>15</v>
+      </c>
+      <c r="U59" t="s">
+        <v>15</v>
+      </c>
+      <c r="V59" t="s">
+        <v>15</v>
+      </c>
+      <c r="W59" t="s">
+        <v>15</v>
+      </c>
+      <c r="X59" t="s">
         <v>570</v>
       </c>
-      <c r="P59" t="s">
+      <c r="Y59" t="s">
         <v>571</v>
       </c>
-      <c r="Q59" t="s">
-        <v>15</v>
-      </c>
-      <c r="R59" t="s">
-        <v>15</v>
-      </c>
-      <c r="S59" t="s">
-        <v>15</v>
-      </c>
-      <c r="T59" t="s">
-        <v>15</v>
-      </c>
-      <c r="U59" t="s">
-        <v>15</v>
-      </c>
-      <c r="V59" t="s">
-        <v>15</v>
-      </c>
-      <c r="W59" t="s">
-        <v>15</v>
-      </c>
-      <c r="X59" t="s">
-        <v>572</v>
-      </c>
-      <c r="Y59" t="s">
-        <v>573</v>
-      </c>
       <c r="Z59" s="6" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="AA59" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="AB59" t="s">
         <v>377</v>
       </c>
       <c r="AC59" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
     </row>
     <row r="60" spans="1:29" ht="60">
@@ -9861,10 +9858,10 @@
         <v>158</v>
       </c>
       <c r="B60" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C60" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="D60" t="s">
         <v>72</v>
@@ -9885,26 +9882,26 @@
         <v>106</v>
       </c>
       <c r="J60" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="K60" t="s">
         <v>106</v>
       </c>
       <c r="L60" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="M60" t="s">
         <v>106</v>
       </c>
       <c r="N60" t="s">
+        <v>567</v>
+      </c>
+      <c r="O60" t="s">
+        <v>568</v>
+      </c>
+      <c r="P60" t="s">
         <v>569</v>
       </c>
-      <c r="O60" t="s">
-        <v>570</v>
-      </c>
-      <c r="P60" t="s">
-        <v>571</v>
-      </c>
       <c r="Q60" t="s">
         <v>15</v>
       </c>
@@ -9927,33 +9924,33 @@
         <v>15</v>
       </c>
       <c r="X60" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="Y60" t="s">
+        <v>572</v>
+      </c>
+      <c r="Z60" s="6" t="s">
         <v>574</v>
       </c>
-      <c r="Z60" s="6" t="s">
-        <v>576</v>
-      </c>
       <c r="AA60" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="AB60" t="s">
         <v>377</v>
       </c>
       <c r="AC60" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
     </row>
     <row r="61" spans="1:29" ht="45">
       <c r="A61" s="4" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B61" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C61" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="D61" t="s">
         <v>72</v>
@@ -9974,22 +9971,22 @@
         <v>106</v>
       </c>
       <c r="J61" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="K61" t="s">
         <v>106</v>
       </c>
       <c r="L61" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="M61" t="s">
         <v>106</v>
       </c>
       <c r="N61" t="s">
+        <v>577</v>
+      </c>
+      <c r="O61" t="s">
         <v>579</v>
-      </c>
-      <c r="O61" t="s">
-        <v>581</v>
       </c>
       <c r="P61" t="s">
         <v>106</v>
@@ -10016,33 +10013,33 @@
         <v>15</v>
       </c>
       <c r="X61" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="Y61" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="Z61" s="6" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="AA61" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AB61" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="AC61" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
     </row>
     <row r="62" spans="1:29" ht="60">
       <c r="A62" s="4" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B62" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C62" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="D62" t="s">
         <v>72</v>
@@ -10063,22 +10060,22 @@
         <v>106</v>
       </c>
       <c r="J62" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="K62" t="s">
         <v>106</v>
       </c>
       <c r="L62" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="M62" t="s">
         <v>106</v>
       </c>
       <c r="N62" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="O62" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="P62" t="s">
         <v>106</v>
@@ -10105,33 +10102,33 @@
         <v>15</v>
       </c>
       <c r="X62" t="s">
+        <v>584</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>585</v>
+      </c>
+      <c r="Z62" s="6" t="s">
         <v>586</v>
       </c>
-      <c r="Y62" t="s">
-        <v>587</v>
-      </c>
-      <c r="Z62" s="6" t="s">
-        <v>588</v>
-      </c>
       <c r="AA62" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="AB62" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="AC62" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
     </row>
     <row r="63" spans="1:29" ht="75">
       <c r="A63" s="4" t="s">
-        <v>461</v>
+        <v>955</v>
       </c>
       <c r="B63" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C63" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="D63" t="s">
         <v>72</v>
@@ -10152,22 +10149,22 @@
         <v>106</v>
       </c>
       <c r="J63" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="K63" t="s">
+        <v>588</v>
+      </c>
+      <c r="L63" t="s">
+        <v>495</v>
+      </c>
+      <c r="M63" t="s">
+        <v>106</v>
+      </c>
+      <c r="N63" t="s">
+        <v>589</v>
+      </c>
+      <c r="O63" t="s">
         <v>590</v>
-      </c>
-      <c r="L63" t="s">
-        <v>497</v>
-      </c>
-      <c r="M63" t="s">
-        <v>106</v>
-      </c>
-      <c r="N63" t="s">
-        <v>591</v>
-      </c>
-      <c r="O63" t="s">
-        <v>592</v>
       </c>
       <c r="P63" t="s">
         <v>106</v>
@@ -10194,33 +10191,33 @@
         <v>15</v>
       </c>
       <c r="X63" t="s">
+        <v>591</v>
+      </c>
+      <c r="Y63" t="s">
         <v>593</v>
       </c>
-      <c r="Y63" t="s">
-        <v>595</v>
-      </c>
       <c r="Z63" s="6" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="AA63" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="AB63" t="s">
-        <v>716</v>
+        <v>590</v>
       </c>
       <c r="AC63" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
     </row>
     <row r="64" spans="1:29" ht="45">
       <c r="A64" s="4" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="B64" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="C64" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="D64" t="s">
         <v>72</v>
@@ -10229,34 +10226,34 @@
         <v>73</v>
       </c>
       <c r="F64" t="s">
+        <v>596</v>
+      </c>
+      <c r="G64" t="s">
+        <v>106</v>
+      </c>
+      <c r="H64" t="s">
+        <v>106</v>
+      </c>
+      <c r="I64" t="s">
+        <v>106</v>
+      </c>
+      <c r="J64" t="s">
+        <v>597</v>
+      </c>
+      <c r="K64" t="s">
+        <v>106</v>
+      </c>
+      <c r="L64" t="s">
         <v>598</v>
       </c>
-      <c r="G64" t="s">
-        <v>106</v>
-      </c>
-      <c r="H64" t="s">
-        <v>106</v>
-      </c>
-      <c r="I64" t="s">
-        <v>106</v>
-      </c>
-      <c r="J64" t="s">
+      <c r="M64" t="s">
+        <v>106</v>
+      </c>
+      <c r="N64" t="s">
         <v>599</v>
       </c>
-      <c r="K64" t="s">
-        <v>106</v>
-      </c>
-      <c r="L64" t="s">
+      <c r="O64" t="s">
         <v>600</v>
-      </c>
-      <c r="M64" t="s">
-        <v>106</v>
-      </c>
-      <c r="N64" t="s">
-        <v>601</v>
-      </c>
-      <c r="O64" t="s">
-        <v>602</v>
       </c>
       <c r="P64" t="s">
         <v>106</v>
@@ -10283,22 +10280,22 @@
         <v>15</v>
       </c>
       <c r="X64" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="Y64" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="Z64" s="6" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="AA64" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AB64" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="AC64" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
     </row>
     <row r="65" spans="1:29" ht="75">
@@ -10306,10 +10303,10 @@
         <v>158</v>
       </c>
       <c r="B65" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C65" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D65" t="s">
         <v>72</v>
@@ -10336,69 +10333,69 @@
         <v>106</v>
       </c>
       <c r="L65" t="s">
+        <v>605</v>
+      </c>
+      <c r="M65" t="s">
+        <v>106</v>
+      </c>
+      <c r="N65" t="s">
+        <v>606</v>
+      </c>
+      <c r="O65" t="s">
         <v>607</v>
       </c>
-      <c r="M65" t="s">
-        <v>106</v>
-      </c>
-      <c r="N65" t="s">
+      <c r="P65" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>15</v>
+      </c>
+      <c r="R65" t="s">
+        <v>15</v>
+      </c>
+      <c r="S65" t="s">
+        <v>15</v>
+      </c>
+      <c r="T65" t="s">
+        <v>15</v>
+      </c>
+      <c r="U65" t="s">
+        <v>15</v>
+      </c>
+      <c r="V65" t="s">
+        <v>15</v>
+      </c>
+      <c r="W65" t="s">
+        <v>15</v>
+      </c>
+      <c r="X65" t="s">
         <v>608</v>
       </c>
-      <c r="O65" t="s">
+      <c r="Y65" t="s">
         <v>609</v>
       </c>
-      <c r="P65" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q65" t="s">
-        <v>15</v>
-      </c>
-      <c r="R65" t="s">
-        <v>15</v>
-      </c>
-      <c r="S65" t="s">
-        <v>15</v>
-      </c>
-      <c r="T65" t="s">
-        <v>15</v>
-      </c>
-      <c r="U65" t="s">
-        <v>15</v>
-      </c>
-      <c r="V65" t="s">
-        <v>15</v>
-      </c>
-      <c r="W65" t="s">
-        <v>15</v>
-      </c>
-      <c r="X65" t="s">
+      <c r="Z65" s="6" t="s">
         <v>610</v>
       </c>
-      <c r="Y65" t="s">
-        <v>611</v>
-      </c>
-      <c r="Z65" s="6" t="s">
-        <v>612</v>
-      </c>
       <c r="AA65" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AB65" t="s">
         <v>377</v>
       </c>
       <c r="AC65" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
     </row>
     <row r="66" spans="1:29" ht="45">
       <c r="A66" s="4" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B66" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="C66" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="D66" t="s">
         <v>72</v>
@@ -10425,16 +10422,16 @@
         <v>106</v>
       </c>
       <c r="L66" t="s">
+        <v>613</v>
+      </c>
+      <c r="M66" t="s">
+        <v>106</v>
+      </c>
+      <c r="N66" t="s">
+        <v>614</v>
+      </c>
+      <c r="O66" t="s">
         <v>615</v>
-      </c>
-      <c r="M66" t="s">
-        <v>106</v>
-      </c>
-      <c r="N66" t="s">
-        <v>616</v>
-      </c>
-      <c r="O66" t="s">
-        <v>617</v>
       </c>
       <c r="P66" t="s">
         <v>106</v>
@@ -10461,33 +10458,33 @@
         <v>15</v>
       </c>
       <c r="X66" t="s">
+        <v>616</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>617</v>
+      </c>
+      <c r="Z66" s="6" t="s">
         <v>618</v>
       </c>
-      <c r="Y66" t="s">
-        <v>619</v>
-      </c>
-      <c r="Z66" s="6" t="s">
-        <v>620</v>
-      </c>
       <c r="AA66" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="AB66" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="AC66" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
     </row>
     <row r="67" spans="1:29" ht="75">
       <c r="A67" s="4" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B67" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C67" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="D67" t="s">
         <v>72</v>
@@ -10514,16 +10511,16 @@
         <v>106</v>
       </c>
       <c r="L67" t="s">
+        <v>620</v>
+      </c>
+      <c r="M67" t="s">
+        <v>106</v>
+      </c>
+      <c r="N67" t="s">
+        <v>621</v>
+      </c>
+      <c r="O67" t="s">
         <v>622</v>
-      </c>
-      <c r="M67" t="s">
-        <v>106</v>
-      </c>
-      <c r="N67" t="s">
-        <v>623</v>
-      </c>
-      <c r="O67" t="s">
-        <v>624</v>
       </c>
       <c r="P67" t="s">
         <v>106</v>
@@ -10550,33 +10547,33 @@
         <v>15</v>
       </c>
       <c r="X67" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="Y67" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="Z67" s="6" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="AA67" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="AB67" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="AC67" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
     </row>
     <row r="68" spans="1:29" ht="75">
       <c r="A68" s="4" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B68" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C68" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="D68" t="s">
         <v>72</v>
@@ -10603,16 +10600,16 @@
         <v>106</v>
       </c>
       <c r="L68" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="M68" t="s">
         <v>106</v>
       </c>
       <c r="N68" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="O68" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="P68" t="s">
         <v>106</v>
@@ -10639,33 +10636,33 @@
         <v>15</v>
       </c>
       <c r="X68" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="Y68" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="Z68" s="6" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="AA68" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AB68" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="AC68" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
     </row>
     <row r="69" spans="1:29" ht="90">
       <c r="A69" s="4" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B69" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="C69" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="D69" t="s">
         <v>72</v>
@@ -10686,22 +10683,22 @@
         <v>106</v>
       </c>
       <c r="J69" t="s">
+        <v>632</v>
+      </c>
+      <c r="K69" t="s">
+        <v>106</v>
+      </c>
+      <c r="L69" t="s">
+        <v>633</v>
+      </c>
+      <c r="M69" t="s">
+        <v>106</v>
+      </c>
+      <c r="N69" t="s">
         <v>634</v>
       </c>
-      <c r="K69" t="s">
-        <v>106</v>
-      </c>
-      <c r="L69" t="s">
+      <c r="O69" t="s">
         <v>635</v>
-      </c>
-      <c r="M69" t="s">
-        <v>106</v>
-      </c>
-      <c r="N69" t="s">
-        <v>636</v>
-      </c>
-      <c r="O69" t="s">
-        <v>637</v>
       </c>
       <c r="P69" t="s">
         <v>106</v>
@@ -10728,33 +10725,33 @@
         <v>15</v>
       </c>
       <c r="X69" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="Y69" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="Z69" s="6" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="AA69" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AB69" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="AC69" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
     </row>
     <row r="70" spans="1:29" ht="90">
       <c r="A70" s="4" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B70" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C70" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="D70" t="s">
         <v>72</v>
@@ -10775,22 +10772,22 @@
         <v>106</v>
       </c>
       <c r="J70" t="s">
+        <v>638</v>
+      </c>
+      <c r="K70" t="s">
+        <v>639</v>
+      </c>
+      <c r="L70" t="s">
         <v>640</v>
       </c>
-      <c r="K70" t="s">
+      <c r="M70" t="s">
+        <v>106</v>
+      </c>
+      <c r="N70" t="s">
         <v>641</v>
       </c>
-      <c r="L70" t="s">
+      <c r="O70" t="s">
         <v>642</v>
-      </c>
-      <c r="M70" t="s">
-        <v>106</v>
-      </c>
-      <c r="N70" t="s">
-        <v>643</v>
-      </c>
-      <c r="O70" t="s">
-        <v>644</v>
       </c>
       <c r="P70" t="s">
         <v>106</v>
@@ -10817,33 +10814,33 @@
         <v>15</v>
       </c>
       <c r="X70" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="Y70" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="Z70" s="6" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="AA70" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="AB70" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="AC70" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="71" spans="1:29" ht="60">
       <c r="A71" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B71" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C71" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="D71" t="s">
         <v>72</v>
@@ -10870,16 +10867,16 @@
         <v>106</v>
       </c>
       <c r="L71" t="s">
+        <v>646</v>
+      </c>
+      <c r="M71" t="s">
+        <v>106</v>
+      </c>
+      <c r="N71" t="s">
+        <v>647</v>
+      </c>
+      <c r="O71" t="s">
         <v>648</v>
-      </c>
-      <c r="M71" t="s">
-        <v>106</v>
-      </c>
-      <c r="N71" t="s">
-        <v>649</v>
-      </c>
-      <c r="O71" t="s">
-        <v>650</v>
       </c>
       <c r="P71" t="s">
         <v>106</v>
@@ -10906,33 +10903,33 @@
         <v>15</v>
       </c>
       <c r="X71" t="s">
+        <v>649</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>650</v>
+      </c>
+      <c r="Z71" s="6" t="s">
         <v>651</v>
       </c>
-      <c r="Y71" t="s">
+      <c r="AA71" s="2" t="s">
         <v>652</v>
       </c>
-      <c r="Z71" s="6" t="s">
-        <v>653</v>
-      </c>
-      <c r="AA71" s="2" t="s">
-        <v>654</v>
-      </c>
       <c r="AB71" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="AC71" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
     </row>
     <row r="72" spans="1:29" ht="45">
       <c r="A72" s="4" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B72" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="C72" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="D72" t="s">
         <v>72</v>
@@ -10959,16 +10956,16 @@
         <v>106</v>
       </c>
       <c r="L72" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="M72" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="N72" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="O72" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="P72" t="s">
         <v>106</v>
@@ -10995,33 +10992,33 @@
         <v>15</v>
       </c>
       <c r="X72" t="s">
+        <v>657</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>658</v>
+      </c>
+      <c r="Z72" s="6" t="s">
         <v>659</v>
       </c>
-      <c r="Y72" t="s">
-        <v>660</v>
-      </c>
-      <c r="Z72" s="6" t="s">
-        <v>661</v>
-      </c>
       <c r="AA72" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AB72" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="AC72" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
     </row>
     <row r="73" spans="1:29" ht="60">
       <c r="A73" s="4" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B73" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C73" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="D73" t="s">
         <v>72</v>
@@ -11048,16 +11045,16 @@
         <v>106</v>
       </c>
       <c r="L73" t="s">
+        <v>661</v>
+      </c>
+      <c r="M73" t="s">
+        <v>106</v>
+      </c>
+      <c r="N73" t="s">
+        <v>662</v>
+      </c>
+      <c r="O73" t="s">
         <v>663</v>
-      </c>
-      <c r="M73" t="s">
-        <v>106</v>
-      </c>
-      <c r="N73" t="s">
-        <v>664</v>
-      </c>
-      <c r="O73" t="s">
-        <v>665</v>
       </c>
       <c r="P73" t="s">
         <v>106</v>
@@ -11084,33 +11081,33 @@
         <v>14</v>
       </c>
       <c r="X73" t="s">
+        <v>664</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>665</v>
+      </c>
+      <c r="Z73" s="6" t="s">
+        <v>667</v>
+      </c>
+      <c r="AA73" s="2" t="s">
         <v>666</v>
       </c>
-      <c r="Y73" t="s">
-        <v>667</v>
-      </c>
-      <c r="Z73" s="6" t="s">
-        <v>669</v>
-      </c>
-      <c r="AA73" s="2" t="s">
-        <v>668</v>
-      </c>
       <c r="AB73" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="AC73" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
     </row>
     <row r="74" spans="1:29" ht="60">
       <c r="A74" s="4" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B74" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C74" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="D74" t="s">
         <v>72</v>
@@ -11137,16 +11134,16 @@
         <v>106</v>
       </c>
       <c r="L74" t="s">
+        <v>669</v>
+      </c>
+      <c r="M74" t="s">
+        <v>106</v>
+      </c>
+      <c r="N74" t="s">
+        <v>670</v>
+      </c>
+      <c r="O74" t="s">
         <v>671</v>
-      </c>
-      <c r="M74" t="s">
-        <v>106</v>
-      </c>
-      <c r="N74" t="s">
-        <v>672</v>
-      </c>
-      <c r="O74" t="s">
-        <v>673</v>
       </c>
       <c r="P74" t="s">
         <v>106</v>
@@ -11173,33 +11170,33 @@
         <v>15</v>
       </c>
       <c r="X74" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="Y74" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="Z74" s="6" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AA74" s="2" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="AB74" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="AC74" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
     </row>
     <row r="75" spans="1:29" ht="60">
       <c r="A75" s="4" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B75" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C75" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="D75" t="s">
         <v>72</v>
@@ -11235,7 +11232,7 @@
         <v>91</v>
       </c>
       <c r="O75" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="P75" t="s">
         <v>106</v>
@@ -11262,33 +11259,33 @@
         <v>15</v>
       </c>
       <c r="X75" t="s">
+        <v>676</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>677</v>
+      </c>
+      <c r="Z75" s="6" t="s">
+        <v>679</v>
+      </c>
+      <c r="AA75" s="2" t="s">
         <v>678</v>
       </c>
-      <c r="Y75" t="s">
-        <v>679</v>
-      </c>
-      <c r="Z75" s="6" t="s">
-        <v>681</v>
-      </c>
-      <c r="AA75" s="2" t="s">
-        <v>680</v>
-      </c>
       <c r="AB75" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="AC75" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
     </row>
     <row r="76" spans="1:29" ht="90">
       <c r="A76" s="4" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B76" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="C76" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="D76" t="s">
         <v>72</v>
@@ -11351,33 +11348,33 @@
         <v>15</v>
       </c>
       <c r="X76" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="Y76" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="Z76" s="6" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="AA76" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="AB76" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="AC76" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
     </row>
     <row r="77" spans="1:29" ht="60">
       <c r="A77" s="4" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B77" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C77" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="D77" t="s">
         <v>72</v>
@@ -11404,16 +11401,16 @@
         <v>106</v>
       </c>
       <c r="L77" t="s">
+        <v>685</v>
+      </c>
+      <c r="M77" t="s">
+        <v>106</v>
+      </c>
+      <c r="N77" t="s">
+        <v>686</v>
+      </c>
+      <c r="O77" t="s">
         <v>687</v>
-      </c>
-      <c r="M77" t="s">
-        <v>106</v>
-      </c>
-      <c r="N77" t="s">
-        <v>688</v>
-      </c>
-      <c r="O77" t="s">
-        <v>689</v>
       </c>
       <c r="P77" t="s">
         <v>106</v>
@@ -11440,33 +11437,33 @@
         <v>15</v>
       </c>
       <c r="X77" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="Y77" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="Z77" s="6" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="AA77" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="AB77" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="AC77" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
     </row>
     <row r="78" spans="1:29" ht="45">
       <c r="A78" s="4" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B78" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C78" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="D78" t="s">
         <v>72</v>
@@ -11487,22 +11484,22 @@
         <v>106</v>
       </c>
       <c r="J78" t="s">
+        <v>690</v>
+      </c>
+      <c r="K78" t="s">
+        <v>106</v>
+      </c>
+      <c r="L78" t="s">
+        <v>691</v>
+      </c>
+      <c r="M78" t="s">
+        <v>106</v>
+      </c>
+      <c r="N78" t="s">
         <v>692</v>
       </c>
-      <c r="K78" t="s">
-        <v>106</v>
-      </c>
-      <c r="L78" t="s">
-        <v>693</v>
-      </c>
-      <c r="M78" t="s">
-        <v>106</v>
-      </c>
-      <c r="N78" t="s">
-        <v>694</v>
-      </c>
       <c r="O78" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="P78" t="s">
         <v>106</v>
@@ -11529,33 +11526,33 @@
         <v>15</v>
       </c>
       <c r="X78" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="Y78" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="Z78" s="6" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="AA78" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="AB78" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="AC78" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
     </row>
     <row r="79" spans="1:29" ht="45">
       <c r="A79" s="4" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B79" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="C79" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="D79" t="s">
         <v>72</v>
@@ -11564,34 +11561,34 @@
         <v>73</v>
       </c>
       <c r="F79" t="s">
+        <v>700</v>
+      </c>
+      <c r="G79" t="s">
+        <v>106</v>
+      </c>
+      <c r="H79" t="s">
+        <v>106</v>
+      </c>
+      <c r="I79" t="s">
+        <v>106</v>
+      </c>
+      <c r="J79" t="s">
+        <v>701</v>
+      </c>
+      <c r="K79" t="s">
+        <v>106</v>
+      </c>
+      <c r="L79" t="s">
         <v>702</v>
       </c>
-      <c r="G79" t="s">
-        <v>106</v>
-      </c>
-      <c r="H79" t="s">
-        <v>106</v>
-      </c>
-      <c r="I79" t="s">
-        <v>106</v>
-      </c>
-      <c r="J79" t="s">
+      <c r="M79" t="s">
+        <v>106</v>
+      </c>
+      <c r="N79" t="s">
         <v>703</v>
       </c>
-      <c r="K79" t="s">
-        <v>106</v>
-      </c>
-      <c r="L79" t="s">
+      <c r="O79" t="s">
         <v>704</v>
-      </c>
-      <c r="M79" t="s">
-        <v>106</v>
-      </c>
-      <c r="N79" t="s">
-        <v>705</v>
-      </c>
-      <c r="O79" t="s">
-        <v>706</v>
       </c>
       <c r="P79" t="s">
         <v>106</v>
@@ -11618,42 +11615,42 @@
         <v>15</v>
       </c>
       <c r="X79" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="Y79" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="Z79" s="6" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="AA79" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="AB79" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="AC79" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
     </row>
     <row r="80" spans="1:29" ht="75">
       <c r="A80" s="4" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B80" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C80" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="D80" t="s">
         <v>72</v>
       </c>
       <c r="E80" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="F80" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="G80" t="s">
         <v>106</v>
@@ -11665,75 +11662,75 @@
         <v>106</v>
       </c>
       <c r="J80" t="s">
+        <v>708</v>
+      </c>
+      <c r="K80" t="s">
+        <v>106</v>
+      </c>
+      <c r="L80" t="s">
+        <v>709</v>
+      </c>
+      <c r="M80" t="s">
+        <v>106</v>
+      </c>
+      <c r="N80" t="s">
+        <v>464</v>
+      </c>
+      <c r="O80" t="s">
         <v>710</v>
       </c>
-      <c r="K80" t="s">
-        <v>106</v>
-      </c>
-      <c r="L80" t="s">
+      <c r="P80" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q80" t="s">
+        <v>15</v>
+      </c>
+      <c r="R80" t="s">
+        <v>15</v>
+      </c>
+      <c r="S80" t="s">
+        <v>15</v>
+      </c>
+      <c r="T80" t="s">
+        <v>15</v>
+      </c>
+      <c r="U80" t="s">
+        <v>15</v>
+      </c>
+      <c r="V80" t="s">
+        <v>15</v>
+      </c>
+      <c r="W80" t="s">
+        <v>15</v>
+      </c>
+      <c r="X80" t="s">
         <v>711</v>
       </c>
-      <c r="M80" t="s">
-        <v>106</v>
-      </c>
-      <c r="N80" t="s">
-        <v>466</v>
-      </c>
-      <c r="O80" t="s">
+      <c r="Y80" t="s">
+        <v>740</v>
+      </c>
+      <c r="Z80" s="6" t="s">
         <v>712</v>
       </c>
-      <c r="P80" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q80" t="s">
-        <v>15</v>
-      </c>
-      <c r="R80" t="s">
-        <v>15</v>
-      </c>
-      <c r="S80" t="s">
-        <v>15</v>
-      </c>
-      <c r="T80" t="s">
-        <v>15</v>
-      </c>
-      <c r="U80" t="s">
-        <v>15</v>
-      </c>
-      <c r="V80" t="s">
-        <v>15</v>
-      </c>
-      <c r="W80" t="s">
-        <v>15</v>
-      </c>
-      <c r="X80" t="s">
-        <v>713</v>
-      </c>
-      <c r="Y80" t="s">
-        <v>742</v>
-      </c>
-      <c r="Z80" s="6" t="s">
-        <v>714</v>
-      </c>
       <c r="AA80" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="AB80" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="AC80" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
     </row>
     <row r="81" spans="1:29" ht="60">
       <c r="A81" s="4" t="s">
+        <v>479</v>
+      </c>
+      <c r="B81" t="s">
+        <v>480</v>
+      </c>
+      <c r="C81" t="s">
         <v>481</v>
-      </c>
-      <c r="B81" t="s">
-        <v>482</v>
-      </c>
-      <c r="C81" t="s">
-        <v>483</v>
       </c>
       <c r="D81" t="s">
         <v>72</v>
@@ -11748,28 +11745,28 @@
         <v>106</v>
       </c>
       <c r="H81" t="s">
+        <v>486</v>
+      </c>
+      <c r="I81" t="s">
+        <v>106</v>
+      </c>
+      <c r="J81" t="s">
+        <v>487</v>
+      </c>
+      <c r="K81" t="s">
+        <v>106</v>
+      </c>
+      <c r="L81" t="s">
         <v>488</v>
       </c>
-      <c r="I81" t="s">
-        <v>106</v>
-      </c>
-      <c r="J81" t="s">
+      <c r="M81" t="s">
+        <v>106</v>
+      </c>
+      <c r="N81" t="s">
         <v>489</v>
       </c>
-      <c r="K81" t="s">
-        <v>106</v>
-      </c>
-      <c r="L81" t="s">
+      <c r="O81" t="s">
         <v>490</v>
-      </c>
-      <c r="M81" t="s">
-        <v>106</v>
-      </c>
-      <c r="N81" t="s">
-        <v>491</v>
-      </c>
-      <c r="O81" t="s">
-        <v>492</v>
       </c>
       <c r="P81" t="s">
         <v>106</v>
@@ -11796,33 +11793,33 @@
         <v>14</v>
       </c>
       <c r="X81" t="s">
+        <v>483</v>
+      </c>
+      <c r="Y81" t="s">
+        <v>484</v>
+      </c>
+      <c r="Z81" s="6" t="s">
+        <v>713</v>
+      </c>
+      <c r="AA81" t="s">
+        <v>482</v>
+      </c>
+      <c r="AB81" t="s">
         <v>485</v>
       </c>
-      <c r="Y81" t="s">
-        <v>486</v>
-      </c>
-      <c r="Z81" s="6" t="s">
-        <v>715</v>
-      </c>
-      <c r="AA81" t="s">
-        <v>484</v>
-      </c>
-      <c r="AB81" t="s">
-        <v>487</v>
-      </c>
       <c r="AC81" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
     </row>
     <row r="82" spans="1:29" ht="75">
       <c r="A82" s="4" t="s">
+        <v>727</v>
+      </c>
+      <c r="B82" t="s">
+        <v>728</v>
+      </c>
+      <c r="C82" t="s">
         <v>729</v>
-      </c>
-      <c r="B82" t="s">
-        <v>730</v>
-      </c>
-      <c r="C82" t="s">
-        <v>731</v>
       </c>
       <c r="D82" t="s">
         <v>72</v>
@@ -11843,22 +11840,22 @@
         <v>106</v>
       </c>
       <c r="J82" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="K82" t="s">
         <v>106</v>
       </c>
       <c r="L82" t="s">
+        <v>730</v>
+      </c>
+      <c r="M82" t="s">
+        <v>106</v>
+      </c>
+      <c r="N82" t="s">
+        <v>731</v>
+      </c>
+      <c r="O82" t="s">
         <v>732</v>
-      </c>
-      <c r="M82" t="s">
-        <v>106</v>
-      </c>
-      <c r="N82" t="s">
-        <v>733</v>
-      </c>
-      <c r="O82" t="s">
-        <v>734</v>
       </c>
       <c r="P82" t="s">
         <v>106</v>
@@ -11885,33 +11882,33 @@
         <v>15</v>
       </c>
       <c r="X82" t="s">
+        <v>733</v>
+      </c>
+      <c r="Y82" t="s">
+        <v>734</v>
+      </c>
+      <c r="Z82" s="6" t="s">
+        <v>737</v>
+      </c>
+      <c r="AA82" t="s">
         <v>735</v>
       </c>
-      <c r="Y82" t="s">
+      <c r="AB82" t="s">
         <v>736</v>
       </c>
-      <c r="Z82" s="6" t="s">
-        <v>739</v>
-      </c>
-      <c r="AA82" t="s">
-        <v>737</v>
-      </c>
-      <c r="AB82" t="s">
-        <v>738</v>
-      </c>
       <c r="AC82" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
     </row>
     <row r="83" spans="1:29" ht="75">
       <c r="A83" s="7" t="s">
+        <v>759</v>
+      </c>
+      <c r="B83" t="s">
+        <v>760</v>
+      </c>
+      <c r="C83" t="s">
         <v>761</v>
-      </c>
-      <c r="B83" t="s">
-        <v>762</v>
-      </c>
-      <c r="C83" t="s">
-        <v>763</v>
       </c>
       <c r="D83" t="s">
         <v>72</v>
@@ -11932,22 +11929,22 @@
         <v>106</v>
       </c>
       <c r="J83" t="s">
+        <v>762</v>
+      </c>
+      <c r="K83" t="s">
+        <v>106</v>
+      </c>
+      <c r="L83" t="s">
+        <v>763</v>
+      </c>
+      <c r="M83" t="s">
         <v>764</v>
       </c>
-      <c r="K83" t="s">
-        <v>106</v>
-      </c>
-      <c r="L83" t="s">
+      <c r="N83" t="s">
         <v>765</v>
       </c>
-      <c r="M83" t="s">
+      <c r="O83" t="s">
         <v>766</v>
-      </c>
-      <c r="N83" t="s">
-        <v>767</v>
-      </c>
-      <c r="O83" t="s">
-        <v>768</v>
       </c>
       <c r="P83" t="s">
         <v>106</v>
@@ -11974,33 +11971,33 @@
         <v>14</v>
       </c>
       <c r="X83" t="s">
+        <v>767</v>
+      </c>
+      <c r="Y83" t="s">
+        <v>768</v>
+      </c>
+      <c r="Z83" s="6" t="s">
         <v>769</v>
       </c>
-      <c r="Y83" t="s">
-        <v>770</v>
-      </c>
-      <c r="Z83" s="6" t="s">
-        <v>771</v>
-      </c>
       <c r="AA83" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="AB83" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="AC83" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
     </row>
     <row r="84" spans="1:29" ht="75">
       <c r="A84" s="7" t="s">
+        <v>770</v>
+      </c>
+      <c r="B84" t="s">
+        <v>771</v>
+      </c>
+      <c r="C84" t="s">
         <v>772</v>
-      </c>
-      <c r="B84" t="s">
-        <v>773</v>
-      </c>
-      <c r="C84" t="s">
-        <v>774</v>
       </c>
       <c r="D84" t="s">
         <v>72</v>
@@ -12009,34 +12006,34 @@
         <v>246</v>
       </c>
       <c r="F84" t="s">
+        <v>773</v>
+      </c>
+      <c r="G84" t="s">
+        <v>106</v>
+      </c>
+      <c r="H84" t="s">
+        <v>106</v>
+      </c>
+      <c r="I84" t="s">
+        <v>106</v>
+      </c>
+      <c r="J84" t="s">
+        <v>774</v>
+      </c>
+      <c r="K84" t="s">
         <v>775</v>
       </c>
-      <c r="G84" t="s">
-        <v>106</v>
-      </c>
-      <c r="H84" t="s">
-        <v>106</v>
-      </c>
-      <c r="I84" t="s">
-        <v>106</v>
-      </c>
-      <c r="J84" t="s">
+      <c r="L84" t="s">
         <v>776</v>
       </c>
-      <c r="K84" t="s">
+      <c r="M84" t="s">
+        <v>106</v>
+      </c>
+      <c r="N84" t="s">
         <v>777</v>
       </c>
-      <c r="L84" t="s">
+      <c r="O84" t="s">
         <v>778</v>
-      </c>
-      <c r="M84" t="s">
-        <v>106</v>
-      </c>
-      <c r="N84" t="s">
-        <v>779</v>
-      </c>
-      <c r="O84" t="s">
-        <v>780</v>
       </c>
       <c r="P84" t="s">
         <v>106</v>
@@ -12063,22 +12060,22 @@
         <v>15</v>
       </c>
       <c r="X84" t="s">
+        <v>779</v>
+      </c>
+      <c r="Y84" t="s">
+        <v>780</v>
+      </c>
+      <c r="Z84" s="6" t="s">
         <v>781</v>
       </c>
-      <c r="Y84" t="s">
+      <c r="AA84" t="s">
         <v>782</v>
       </c>
-      <c r="Z84" s="6" t="s">
+      <c r="AB84" t="s">
         <v>783</v>
       </c>
-      <c r="AA84" t="s">
-        <v>784</v>
-      </c>
-      <c r="AB84" t="s">
-        <v>785</v>
-      </c>
       <c r="AC84" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
     </row>
   </sheetData>
@@ -12124,13 +12121,13 @@
         <v>344</v>
       </c>
       <c r="I1" s="3" t="s">
+        <v>944</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>945</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>946</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>947</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>948</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>94</v>
@@ -12167,10 +12164,10 @@
         <v>4</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="K2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="M2" s="8" t="s">
         <v>81</v>
@@ -12179,7 +12176,7 @@
         <v>110</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="60">
@@ -12207,10 +12204,10 @@
         <v>5</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="K3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="M3" s="8" t="s">
         <v>20</v>
@@ -12219,7 +12216,7 @@
         <v>111</v>
       </c>
       <c r="O3" s="6" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="105">
@@ -12247,10 +12244,10 @@
         <v>6</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="K4" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="M4" s="8" t="s">
         <v>21</v>
@@ -12259,7 +12256,7 @@
         <v>112</v>
       </c>
       <c r="O4" s="6" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="75">
@@ -12287,10 +12284,10 @@
         <v>7</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="K5" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="M5" s="8" t="s">
         <v>24</v>
@@ -12299,7 +12296,7 @@
         <v>113</v>
       </c>
       <c r="O5" s="6" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="75">
@@ -12327,13 +12324,13 @@
         <v>8</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="K6" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="L6" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="M6" s="8" t="s">
         <v>27</v>
@@ -12342,7 +12339,7 @@
         <v>114</v>
       </c>
       <c r="O6" s="6" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="75">
@@ -12370,10 +12367,10 @@
         <v>367</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="K7" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="M7" s="8" t="s">
         <v>47</v>
@@ -12382,7 +12379,7 @@
         <v>115</v>
       </c>
       <c r="O7" s="6" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="60">
@@ -12410,10 +12407,10 @@
         <v>9</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="K8" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="M8" s="8" t="s">
         <v>31</v>
@@ -12422,7 +12419,7 @@
         <v>116</v>
       </c>
       <c r="O8" s="6" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="75">
@@ -12450,10 +12447,10 @@
         <v>83</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="K9" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="M9" s="8" t="s">
         <v>34</v>
@@ -12462,7 +12459,7 @@
         <v>117</v>
       </c>
       <c r="O9" s="6" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="75">
@@ -12490,10 +12487,10 @@
         <v>158</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="K10" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="M10" s="8" t="s">
         <v>37</v>
@@ -12502,7 +12499,7 @@
         <v>118</v>
       </c>
       <c r="O10" s="6" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="75">
@@ -12530,10 +12527,10 @@
         <v>171</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="K11" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="M11" s="10" t="s">
         <v>40</v>
@@ -12542,7 +12539,7 @@
         <v>119</v>
       </c>
       <c r="O11" s="6" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="45">
@@ -12550,10 +12547,10 @@
         <v>196</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="K12" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="M12" s="8" t="s">
         <v>42</v>
@@ -12562,7 +12559,7 @@
         <v>120</v>
       </c>
       <c r="O12" s="6" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="60">
@@ -12570,10 +12567,10 @@
         <v>215</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="K13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="M13" s="8" t="s">
         <v>44</v>
@@ -12582,7 +12579,7 @@
         <v>121</v>
       </c>
       <c r="O13" s="6" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="75">
@@ -12590,10 +12587,10 @@
         <v>229</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="K14" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="M14" s="8" t="s">
         <v>49</v>
@@ -12602,7 +12599,7 @@
         <v>122</v>
       </c>
       <c r="O14" s="6" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="60">
@@ -12610,10 +12607,10 @@
         <v>243</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="K15" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="M15" s="8" t="s">
         <v>49</v>
@@ -12622,7 +12619,7 @@
         <v>123</v>
       </c>
       <c r="O15" s="6" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="75">
@@ -12630,10 +12627,10 @@
         <v>271</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="K16" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="M16" s="12" t="s">
         <v>49</v>
@@ -12642,7 +12639,7 @@
         <v>124</v>
       </c>
       <c r="O16" s="6" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
     </row>
     <row r="17" spans="9:15" ht="75">
@@ -12650,10 +12647,10 @@
         <v>317</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="K17" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="M17" s="12" t="s">
         <v>53</v>
@@ -12662,15 +12659,15 @@
         <v>125</v>
       </c>
       <c r="O17" s="6" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
     </row>
     <row r="18" spans="9:15" ht="60">
       <c r="J18" s="2" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="K18" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="M18" s="12" t="s">
         <v>53</v>
@@ -12679,15 +12676,15 @@
         <v>126</v>
       </c>
       <c r="O18" s="6" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
     </row>
     <row r="19" spans="9:15" ht="60">
       <c r="J19" s="2" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="K19" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="M19" s="12" t="s">
         <v>53</v>
@@ -12696,15 +12693,15 @@
         <v>127</v>
       </c>
       <c r="O19" s="6" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
     </row>
     <row r="20" spans="9:15" ht="75">
       <c r="J20" s="2" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="K20" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="M20" s="12" t="s">
         <v>58</v>
@@ -12713,15 +12710,15 @@
         <v>128</v>
       </c>
       <c r="O20" s="6" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="21" spans="9:15" ht="90">
       <c r="J21" s="2" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="K21" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="M21" s="12" t="s">
         <v>58</v>
@@ -12730,15 +12727,15 @@
         <v>129</v>
       </c>
       <c r="O21" s="6" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
     </row>
     <row r="22" spans="9:15" ht="75">
       <c r="J22" s="2" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="K22" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="M22" s="12" t="s">
         <v>58</v>
@@ -12747,15 +12744,15 @@
         <v>130</v>
       </c>
       <c r="O22" s="6" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
     </row>
     <row r="23" spans="9:15" ht="75">
       <c r="J23" s="2" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="K23" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="M23" s="8" t="s">
         <v>88</v>
@@ -12764,15 +12761,15 @@
         <v>131</v>
       </c>
       <c r="O23" s="6" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
     </row>
     <row r="24" spans="9:15" ht="75">
       <c r="J24" s="2" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="K24" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="M24" s="8" t="s">
         <v>160</v>
@@ -12781,15 +12778,15 @@
         <v>166</v>
       </c>
       <c r="O24" s="6" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
     </row>
     <row r="25" spans="9:15" ht="75">
       <c r="J25" s="2" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="K25" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="M25" s="8" t="s">
         <v>172</v>
@@ -12798,12 +12795,12 @@
         <v>177</v>
       </c>
       <c r="O25" s="6" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
     </row>
     <row r="26" spans="9:15" ht="75">
       <c r="K26" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="M26" s="8" t="s">
         <v>180</v>
@@ -12812,12 +12809,12 @@
         <v>187</v>
       </c>
       <c r="O26" s="6" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="27" spans="9:15" ht="90">
       <c r="K27" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="M27" s="8" t="s">
         <v>194</v>
@@ -12826,12 +12823,12 @@
         <v>191</v>
       </c>
       <c r="O27" s="6" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
     </row>
     <row r="28" spans="9:15" ht="75">
       <c r="K28" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="M28" s="8" t="s">
         <v>197</v>
@@ -12840,12 +12837,12 @@
         <v>201</v>
       </c>
       <c r="O28" s="6" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
     </row>
     <row r="29" spans="9:15" ht="75">
       <c r="K29" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="M29" s="8" t="s">
         <v>205</v>
@@ -12854,12 +12851,12 @@
         <v>211</v>
       </c>
       <c r="O29" s="6" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
     </row>
     <row r="30" spans="9:15" ht="60">
       <c r="K30" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="M30" s="12" t="s">
         <v>216</v>
@@ -12868,12 +12865,12 @@
         <v>221</v>
       </c>
       <c r="O30" s="6" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
     </row>
     <row r="31" spans="9:15" ht="75">
       <c r="K31" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="M31" s="8" t="s">
         <v>223</v>
@@ -12882,12 +12879,12 @@
         <v>225</v>
       </c>
       <c r="O31" s="6" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
     </row>
     <row r="32" spans="9:15" ht="75">
       <c r="K32" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="M32" s="8" t="s">
         <v>230</v>
@@ -12896,12 +12893,12 @@
         <v>236</v>
       </c>
       <c r="O32" s="6" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
     </row>
     <row r="33" spans="11:15" ht="60">
       <c r="K33" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="M33" s="8" t="s">
         <v>241</v>
@@ -12910,12 +12907,12 @@
         <v>239</v>
       </c>
       <c r="O33" s="6" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
     </row>
     <row r="34" spans="11:15" ht="60">
       <c r="K34" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="M34" s="8" t="s">
         <v>245</v>
@@ -12924,12 +12921,12 @@
         <v>253</v>
       </c>
       <c r="O34" s="6" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
     </row>
     <row r="35" spans="11:15" ht="75">
       <c r="K35" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="M35" s="8" t="s">
         <v>261</v>
@@ -12938,12 +12935,12 @@
         <v>260</v>
       </c>
       <c r="O35" s="6" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
     </row>
     <row r="36" spans="11:15" ht="60">
       <c r="K36" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="M36" s="8" t="s">
         <v>267</v>
@@ -12952,12 +12949,12 @@
         <v>268</v>
       </c>
       <c r="O36" s="13" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
     </row>
     <row r="37" spans="11:15" ht="90">
       <c r="K37" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="M37" s="8" t="s">
         <v>272</v>
@@ -12966,12 +12963,12 @@
         <v>276</v>
       </c>
       <c r="O37" s="6" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
     </row>
     <row r="38" spans="11:15" ht="75">
       <c r="K38" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="M38" s="8" t="s">
         <v>278</v>
@@ -12980,12 +12977,12 @@
         <v>280</v>
       </c>
       <c r="O38" s="6" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
     </row>
     <row r="39" spans="11:15" ht="60">
       <c r="K39" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="M39" s="8" t="s">
         <v>283</v>
@@ -12994,12 +12991,12 @@
         <v>286</v>
       </c>
       <c r="O39" s="6" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
     </row>
     <row r="40" spans="11:15" ht="90">
       <c r="K40" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="M40" s="8" t="s">
         <v>288</v>
@@ -13008,7 +13005,7 @@
         <v>291</v>
       </c>
       <c r="O40" s="6" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
     </row>
     <row r="41" spans="11:15" ht="45">
@@ -13019,7 +13016,7 @@
         <v>300</v>
       </c>
       <c r="O41" s="6" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
     </row>
     <row r="42" spans="11:15" ht="75">
@@ -13030,7 +13027,7 @@
         <v>308</v>
       </c>
       <c r="O42" s="6" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
     </row>
     <row r="43" spans="11:15" ht="75">
@@ -13041,7 +13038,7 @@
         <v>314</v>
       </c>
       <c r="O43" s="6" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
     </row>
     <row r="44" spans="11:15" ht="60">
@@ -13052,7 +13049,7 @@
         <v>323</v>
       </c>
       <c r="O44" s="6" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
     </row>
     <row r="45" spans="11:15" ht="90">
@@ -13063,442 +13060,442 @@
         <v>330</v>
       </c>
       <c r="O45" s="6" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
     </row>
     <row r="46" spans="11:15" ht="90">
       <c r="M46" s="8" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="N46" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="O46" s="6" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
     </row>
     <row r="47" spans="11:15" ht="75">
       <c r="M47" s="8" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="N47" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="O47" s="6" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
     </row>
     <row r="48" spans="11:15" ht="75">
       <c r="M48" s="8" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="N48" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="O48" s="6" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
     </row>
     <row r="49" spans="13:16" ht="75">
       <c r="M49" s="8" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="N49" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="O49" s="6" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
     </row>
     <row r="50" spans="13:16" ht="75">
       <c r="M50" s="8" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="N50" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="O50" s="6" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
     </row>
     <row r="51" spans="13:16" ht="75">
       <c r="M51" s="8" t="s">
+        <v>514</v>
+      </c>
+      <c r="N51" t="s">
         <v>516</v>
       </c>
-      <c r="N51" t="s">
-        <v>518</v>
-      </c>
       <c r="O51" s="6" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
     </row>
     <row r="52" spans="13:16" ht="60">
       <c r="M52" s="8" t="s">
+        <v>506</v>
+      </c>
+      <c r="N52" t="s">
         <v>508</v>
       </c>
-      <c r="N52" t="s">
-        <v>510</v>
-      </c>
       <c r="O52" s="6" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
     </row>
     <row r="53" spans="13:16" ht="90">
       <c r="M53" s="8" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="N53" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="O53" s="6" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
     </row>
     <row r="54" spans="13:16" ht="60">
       <c r="M54" s="8" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="N54" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="O54" s="6" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="P54" s="9"/>
     </row>
     <row r="55" spans="13:16" ht="60">
       <c r="M55" s="8" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="N55" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="O55" s="6" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
     </row>
     <row r="56" spans="13:16" ht="90">
       <c r="M56" s="8" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="N56" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="O56" s="6" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
     </row>
     <row r="57" spans="13:16" ht="60">
       <c r="M57" s="8" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="N57" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="O57" s="6" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
     </row>
     <row r="58" spans="13:16" ht="45">
       <c r="M58" s="8" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="N58" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="O58" s="6" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="59" spans="13:16" ht="90">
       <c r="M59" s="8" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="N59" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="O59" s="6" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
     </row>
     <row r="60" spans="13:16" ht="60">
       <c r="M60" s="8" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="N60" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="O60" s="6" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="61" spans="13:16" ht="45">
       <c r="M61" s="8" t="s">
+        <v>578</v>
+      </c>
+      <c r="N61" t="s">
+        <v>576</v>
+      </c>
+      <c r="O61" s="6" t="s">
         <v>580</v>
-      </c>
-      <c r="N61" t="s">
-        <v>578</v>
-      </c>
-      <c r="O61" s="6" t="s">
-        <v>582</v>
       </c>
     </row>
     <row r="62" spans="13:16" ht="60">
       <c r="M62" s="8" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="N62" t="s">
+        <v>584</v>
+      </c>
+      <c r="O62" s="6" t="s">
         <v>586</v>
-      </c>
-      <c r="O62" s="6" t="s">
-        <v>588</v>
       </c>
     </row>
     <row r="63" spans="13:16" ht="75">
       <c r="M63" s="8" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="N63" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="O63" s="6" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="64" spans="13:16" ht="45">
       <c r="M64" s="8" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="N64" t="s">
+        <v>601</v>
+      </c>
+      <c r="O64" s="6" t="s">
         <v>603</v>
-      </c>
-      <c r="O64" s="6" t="s">
-        <v>605</v>
       </c>
       <c r="P64" s="9"/>
     </row>
     <row r="65" spans="13:16" ht="75">
       <c r="M65" s="8" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="N65" t="s">
+        <v>608</v>
+      </c>
+      <c r="O65" s="6" t="s">
         <v>610</v>
-      </c>
-      <c r="O65" s="6" t="s">
-        <v>612</v>
       </c>
     </row>
     <row r="66" spans="13:16" ht="45">
       <c r="M66" s="8" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="N66" t="s">
+        <v>616</v>
+      </c>
+      <c r="O66" s="6" t="s">
         <v>618</v>
-      </c>
-      <c r="O66" s="6" t="s">
-        <v>620</v>
       </c>
     </row>
     <row r="67" spans="13:16" ht="75">
       <c r="M67" s="8" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="N67" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="O67" s="6" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
     </row>
     <row r="68" spans="13:16" ht="75">
       <c r="M68" s="8" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="N68" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="O68" s="6" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
     </row>
     <row r="69" spans="13:16" ht="90">
       <c r="M69" s="8" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="N69" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="O69" s="6" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
     </row>
     <row r="70" spans="13:16" ht="90">
       <c r="M70" s="8" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="N70" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="O70" s="6" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
     </row>
     <row r="71" spans="13:16" ht="60">
       <c r="M71" s="8" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="N71" t="s">
+        <v>649</v>
+      </c>
+      <c r="O71" s="6" t="s">
         <v>651</v>
-      </c>
-      <c r="O71" s="6" t="s">
-        <v>653</v>
       </c>
     </row>
     <row r="72" spans="13:16" ht="45">
       <c r="M72" s="8" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="N72" t="s">
+        <v>657</v>
+      </c>
+      <c r="O72" s="6" t="s">
         <v>659</v>
-      </c>
-      <c r="O72" s="6" t="s">
-        <v>661</v>
       </c>
     </row>
     <row r="73" spans="13:16" ht="60">
       <c r="M73" s="10" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="N73" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="O73" s="6" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
     </row>
     <row r="74" spans="13:16" ht="60">
       <c r="M74" s="8" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="N74" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="O74" s="6" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="75" spans="13:16" ht="60">
       <c r="M75" s="8" t="s">
+        <v>674</v>
+      </c>
+      <c r="N75" t="s">
         <v>676</v>
       </c>
-      <c r="N75" t="s">
-        <v>678</v>
-      </c>
       <c r="O75" s="6" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
     </row>
     <row r="76" spans="13:16" ht="90">
       <c r="M76" s="8" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="N76" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="O76" s="6" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
     </row>
     <row r="77" spans="13:16" ht="60">
       <c r="M77" s="8" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="N77" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="O77" s="6" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="78" spans="13:16" ht="45">
       <c r="M78" s="8" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="N78" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="O78" s="6" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="P78" s="9"/>
     </row>
     <row r="79" spans="13:16" ht="45">
       <c r="M79" s="8" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="N79" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="O79" s="6" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
     </row>
     <row r="80" spans="13:16" ht="75">
       <c r="M80" s="8" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="N80" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="O80" s="6" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
     </row>
     <row r="81" spans="13:16" ht="60">
       <c r="M81" s="8" t="s">
+        <v>481</v>
+      </c>
+      <c r="N81" t="s">
         <v>483</v>
       </c>
-      <c r="N81" t="s">
-        <v>485</v>
-      </c>
       <c r="O81" s="6" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="P81" s="9" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
     </row>
     <row r="82" spans="13:16" ht="75">
       <c r="M82" s="8" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="N82" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="O82" s="6" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
     </row>
     <row r="83" spans="13:16" ht="75">
       <c r="M83" s="8" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="N83" t="s">
+        <v>767</v>
+      </c>
+      <c r="O83" s="6" t="s">
         <v>769</v>
-      </c>
-      <c r="O83" s="6" t="s">
-        <v>771</v>
       </c>
     </row>
     <row r="84" spans="13:16" ht="75">
       <c r="M84" s="8" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="N84" t="s">
+        <v>779</v>
+      </c>
+      <c r="O84" s="6" t="s">
         <v>781</v>
-      </c>
-      <c r="O84" s="6" t="s">
-        <v>783</v>
       </c>
     </row>
   </sheetData>
@@ -13532,285 +13529,285 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B1" t="s">
+        <v>387</v>
+      </c>
+      <c r="C1" t="s">
         <v>388</v>
-      </c>
-      <c r="C1" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B4" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
+        <v>395</v>
+      </c>
+      <c r="B5" t="s">
+        <v>397</v>
+      </c>
+      <c r="C5" t="s">
         <v>396</v>
-      </c>
-      <c r="B5" t="s">
-        <v>398</v>
-      </c>
-      <c r="C5" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
+        <v>399</v>
+      </c>
+      <c r="B6" t="s">
         <v>400</v>
-      </c>
-      <c r="B6" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B7" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
+        <v>402</v>
+      </c>
+      <c r="B8" t="s">
         <v>403</v>
-      </c>
-      <c r="B8" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
+        <v>404</v>
+      </c>
+      <c r="B9" t="s">
         <v>405</v>
-      </c>
-      <c r="B9" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
+        <v>406</v>
+      </c>
+      <c r="B10" t="s">
         <v>407</v>
-      </c>
-      <c r="B10" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
+        <v>408</v>
+      </c>
+      <c r="B11" t="s">
         <v>409</v>
-      </c>
-      <c r="B11" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
+        <v>410</v>
+      </c>
+      <c r="B12" t="s">
         <v>411</v>
-      </c>
-      <c r="B12" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
+        <v>412</v>
+      </c>
+      <c r="B13" t="s">
         <v>413</v>
-      </c>
-      <c r="B13" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
+        <v>414</v>
+      </c>
+      <c r="B14" t="s">
         <v>415</v>
-      </c>
-      <c r="B14" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
+        <v>416</v>
+      </c>
+      <c r="B15" t="s">
         <v>417</v>
-      </c>
-      <c r="B15" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
+        <v>418</v>
+      </c>
+      <c r="B16" t="s">
         <v>419</v>
-      </c>
-      <c r="B16" t="s">
-        <v>420</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
+        <v>420</v>
+      </c>
+      <c r="B17" t="s">
         <v>421</v>
-      </c>
-      <c r="B17" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
+        <v>422</v>
+      </c>
+      <c r="B18" t="s">
         <v>423</v>
-      </c>
-      <c r="B18" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B19" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B20" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
+        <v>429</v>
+      </c>
+      <c r="B21" t="s">
         <v>430</v>
-      </c>
-      <c r="B21" t="s">
-        <v>431</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
+        <v>431</v>
+      </c>
+      <c r="B22" t="s">
         <v>432</v>
-      </c>
-      <c r="B22" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
+        <v>433</v>
+      </c>
+      <c r="B23" t="s">
         <v>434</v>
-      </c>
-      <c r="B23" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
+        <v>435</v>
+      </c>
+      <c r="B24" t="s">
         <v>436</v>
-      </c>
-      <c r="B24" t="s">
-        <v>437</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B26" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
+        <v>442</v>
+      </c>
+      <c r="B30" t="s">
         <v>443</v>
-      </c>
-      <c r="B30" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
+        <v>444</v>
+      </c>
+      <c r="B31" t="s">
         <v>445</v>
-      </c>
-      <c r="B31" t="s">
-        <v>446</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
+        <v>446</v>
+      </c>
+      <c r="B32" t="s">
         <v>447</v>
-      </c>
-      <c r="B32" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
+        <v>448</v>
+      </c>
+      <c r="B33" t="s">
         <v>449</v>
-      </c>
-      <c r="B33" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
+        <v>450</v>
+      </c>
+      <c r="B34" t="s">
         <v>451</v>
-      </c>
-      <c r="B34" t="s">
-        <v>452</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
+        <v>455</v>
+      </c>
+      <c r="B35" t="s">
         <v>456</v>
-      </c>
-      <c r="B35" t="s">
-        <v>457</v>
       </c>
     </row>
   </sheetData>

--- a/Toddler Taxonomist/animal_list.xlsx
+++ b/Toddler Taxonomist/animal_list.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2886" uniqueCount="956">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2886" uniqueCount="957">
   <si>
     <t>Common Name</t>
   </si>
@@ -2204,9 +2204,6 @@
     <t>http://en.wikipedia.org/wiki/Two-toed_sloth</t>
   </si>
   <si>
-    <t>Prarie Dog</t>
-  </si>
-  <si>
     <t>Black-tailed Prarie Dog</t>
   </si>
   <si>
@@ -2889,6 +2886,12 @@
   </si>
   <si>
     <t>Orca</t>
+  </si>
+  <si>
+    <t>Black-tailed Prairie Dog</t>
+  </si>
+  <si>
+    <t>Prairie Dog</t>
   </si>
 </sst>
 </file>
@@ -4570,10 +4573,10 @@
   <dimension ref="A1:AC84"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="AB39" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C76" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AB35" sqref="AB35"/>
+      <selection pane="bottomRight" activeCell="A83" sqref="A83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4690,7 +4693,7 @@
         <v>369</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="2" spans="1:29" ht="90">
@@ -4770,16 +4773,16 @@
         <v>13</v>
       </c>
       <c r="Z2" s="6" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="AA2" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="AB2" t="s">
         <v>368</v>
       </c>
       <c r="AC2" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="3" spans="1:29" ht="60">
@@ -4859,16 +4862,16 @@
         <v>19</v>
       </c>
       <c r="Z3" s="6" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="AA3" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="AB3" t="s">
         <v>368</v>
       </c>
       <c r="AC3" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="4" spans="1:29" ht="105">
@@ -4948,16 +4951,16 @@
         <v>22</v>
       </c>
       <c r="Z4" s="6" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="AA4" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="AB4" t="s">
         <v>368</v>
       </c>
       <c r="AC4" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="5" spans="1:29" ht="75">
@@ -5037,16 +5040,16 @@
         <v>23</v>
       </c>
       <c r="Z5" s="6" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="AA5" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="AB5" t="s">
         <v>370</v>
       </c>
       <c r="AC5" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="6" spans="1:29" ht="75">
@@ -5126,16 +5129,16 @@
         <v>26</v>
       </c>
       <c r="Z6" s="6" t="s">
+        <v>747</v>
+      </c>
+      <c r="AA6" t="s">
         <v>748</v>
-      </c>
-      <c r="AA6" t="s">
-        <v>749</v>
       </c>
       <c r="AB6" t="s">
         <v>370</v>
       </c>
       <c r="AC6" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="7" spans="1:29" ht="75">
@@ -5215,16 +5218,16 @@
         <v>45</v>
       </c>
       <c r="Z7" s="6" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="AA7" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="AB7" t="s">
         <v>370</v>
       </c>
       <c r="AC7" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="8" spans="1:29" ht="60">
@@ -5304,16 +5307,16 @@
         <v>29</v>
       </c>
       <c r="Z8" s="6" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="AA8" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="AB8" t="s">
         <v>371</v>
       </c>
       <c r="AC8" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="9" spans="1:29" ht="75">
@@ -5393,16 +5396,16 @@
         <v>32</v>
       </c>
       <c r="Z9" s="6" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="AA9" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="AB9" t="s">
         <v>371</v>
       </c>
       <c r="AC9" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="10" spans="1:29" ht="75">
@@ -5482,16 +5485,16 @@
         <v>35</v>
       </c>
       <c r="Z10" s="6" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="AA10" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="AB10" t="s">
         <v>371</v>
       </c>
       <c r="AC10" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="11" spans="1:29" ht="75">
@@ -5571,16 +5574,16 @@
         <v>38</v>
       </c>
       <c r="Z11" s="6" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="AA11" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="AB11" t="s">
         <v>372</v>
       </c>
       <c r="AC11" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="12" spans="1:29" ht="45">
@@ -5657,19 +5660,19 @@
         <v>120</v>
       </c>
       <c r="Y12" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="Z12" s="6" t="s">
+        <v>876</v>
+      </c>
+      <c r="AA12" t="s">
         <v>877</v>
-      </c>
-      <c r="AA12" t="s">
-        <v>878</v>
       </c>
       <c r="AB12" t="s">
         <v>372</v>
       </c>
       <c r="AC12" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="13" spans="1:29" ht="60">
@@ -5746,19 +5749,19 @@
         <v>121</v>
       </c>
       <c r="Y13" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="Z13" s="6" t="s">
+        <v>878</v>
+      </c>
+      <c r="AA13" t="s">
         <v>879</v>
-      </c>
-      <c r="AA13" t="s">
-        <v>880</v>
       </c>
       <c r="AB13" t="s">
         <v>372</v>
       </c>
       <c r="AC13" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="14" spans="1:29" ht="75">
@@ -5838,10 +5841,10 @@
         <v>155</v>
       </c>
       <c r="Z14" s="6" t="s">
+        <v>880</v>
+      </c>
+      <c r="AA14" t="s">
         <v>881</v>
-      </c>
-      <c r="AA14" t="s">
-        <v>882</v>
       </c>
       <c r="AB14" t="s">
         <v>373</v>
@@ -5927,16 +5930,16 @@
         <v>50</v>
       </c>
       <c r="Z15" s="6" t="s">
+        <v>882</v>
+      </c>
+      <c r="AA15" t="s">
         <v>883</v>
-      </c>
-      <c r="AA15" t="s">
-        <v>884</v>
       </c>
       <c r="AB15" t="s">
         <v>373</v>
       </c>
       <c r="AC15" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="16" spans="1:29" ht="75">
@@ -5944,7 +5947,7 @@
         <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="C16" t="s">
         <v>49</v>
@@ -6016,16 +6019,16 @@
         <v>52</v>
       </c>
       <c r="Z16" s="6" t="s">
+        <v>885</v>
+      </c>
+      <c r="AA16" t="s">
         <v>886</v>
-      </c>
-      <c r="AA16" t="s">
-        <v>887</v>
       </c>
       <c r="AB16" t="s">
         <v>373</v>
       </c>
       <c r="AC16" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="17" spans="1:29" ht="75">
@@ -6105,16 +6108,16 @@
         <v>153</v>
       </c>
       <c r="Z17" s="6" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="AA17" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="AB17" t="s">
         <v>374</v>
       </c>
       <c r="AC17" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="18" spans="1:29" ht="60">
@@ -6194,16 +6197,16 @@
         <v>54</v>
       </c>
       <c r="Z18" s="6" t="s">
+        <v>889</v>
+      </c>
+      <c r="AA18" t="s">
         <v>890</v>
-      </c>
-      <c r="AA18" t="s">
-        <v>891</v>
       </c>
       <c r="AB18" t="s">
         <v>374</v>
       </c>
       <c r="AC18" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="19" spans="1:29" ht="60">
@@ -6283,16 +6286,16 @@
         <v>56</v>
       </c>
       <c r="Z19" s="6" t="s">
+        <v>891</v>
+      </c>
+      <c r="AA19" t="s">
         <v>892</v>
-      </c>
-      <c r="AA19" t="s">
-        <v>893</v>
       </c>
       <c r="AB19" t="s">
         <v>374</v>
       </c>
       <c r="AC19" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="20" spans="1:29" ht="75">
@@ -6372,16 +6375,16 @@
         <v>59</v>
       </c>
       <c r="Z20" s="6" t="s">
+        <v>893</v>
+      </c>
+      <c r="AA20" t="s">
         <v>894</v>
-      </c>
-      <c r="AA20" t="s">
-        <v>895</v>
       </c>
       <c r="AB20" t="s">
         <v>375</v>
       </c>
       <c r="AC20" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="21" spans="1:29" ht="90">
@@ -6461,7 +6464,7 @@
         <v>157</v>
       </c>
       <c r="Z21" s="6" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="AA21" t="s">
         <v>156</v>
@@ -6470,7 +6473,7 @@
         <v>375</v>
       </c>
       <c r="AC21" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="22" spans="1:29" ht="75">
@@ -6550,16 +6553,16 @@
         <v>61</v>
       </c>
       <c r="Z22" s="6" t="s">
+        <v>895</v>
+      </c>
+      <c r="AA22" t="s">
         <v>896</v>
-      </c>
-      <c r="AA22" t="s">
-        <v>897</v>
       </c>
       <c r="AB22" t="s">
         <v>375</v>
       </c>
       <c r="AC22" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="23" spans="1:29" ht="75">
@@ -6639,16 +6642,16 @@
         <v>87</v>
       </c>
       <c r="Z23" s="6" t="s">
+        <v>897</v>
+      </c>
+      <c r="AA23" t="s">
         <v>898</v>
-      </c>
-      <c r="AA23" t="s">
-        <v>899</v>
       </c>
       <c r="AB23" t="s">
         <v>376</v>
       </c>
       <c r="AC23" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="24" spans="1:29" ht="75">
@@ -6728,7 +6731,7 @@
         <v>167</v>
       </c>
       <c r="Z24" s="6" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="AA24" t="s">
         <v>168</v>
@@ -6737,7 +6740,7 @@
         <v>377</v>
       </c>
       <c r="AC24" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="25" spans="1:29" ht="75">
@@ -6817,7 +6820,7 @@
         <v>178</v>
       </c>
       <c r="Z25" s="6" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="AA25" t="s">
         <v>179</v>
@@ -6826,7 +6829,7 @@
         <v>378</v>
       </c>
       <c r="AC25" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="26" spans="1:29" ht="75">
@@ -6906,7 +6909,7 @@
         <v>189</v>
       </c>
       <c r="Z26" s="6" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="AA26" t="s">
         <v>188</v>
@@ -6915,7 +6918,7 @@
         <v>378</v>
       </c>
       <c r="AC26" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="27" spans="1:29" ht="90">
@@ -6995,7 +6998,7 @@
         <v>195</v>
       </c>
       <c r="Z27" s="6" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="AA27" t="s">
         <v>192</v>
@@ -7004,7 +7007,7 @@
         <v>378</v>
       </c>
       <c r="AC27" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="28" spans="1:29" ht="75">
@@ -7084,7 +7087,7 @@
         <v>203</v>
       </c>
       <c r="Z28" s="6" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="AA28" t="s">
         <v>202</v>
@@ -7093,7 +7096,7 @@
         <v>379</v>
       </c>
       <c r="AC28" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="29" spans="1:29" ht="75">
@@ -7173,7 +7176,7 @@
         <v>213</v>
       </c>
       <c r="Z29" s="6" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="AA29" t="s">
         <v>212</v>
@@ -7182,7 +7185,7 @@
         <v>377</v>
       </c>
       <c r="AC29" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="30" spans="1:29" ht="60">
@@ -7262,7 +7265,7 @@
         <v>222</v>
       </c>
       <c r="Z30" s="6" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="AA30" t="s">
         <v>214</v>
@@ -7271,7 +7274,7 @@
         <v>380</v>
       </c>
       <c r="AC30" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="31" spans="1:29" ht="75">
@@ -7351,7 +7354,7 @@
         <v>226</v>
       </c>
       <c r="Z31" s="6" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="AA31" t="s">
         <v>227</v>
@@ -7360,7 +7363,7 @@
         <v>380</v>
       </c>
       <c r="AC31" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="32" spans="1:29" ht="75">
@@ -7440,7 +7443,7 @@
         <v>237</v>
       </c>
       <c r="Z32" s="6" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="AA32" t="s">
         <v>238</v>
@@ -7449,7 +7452,7 @@
         <v>381</v>
       </c>
       <c r="AC32" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="33" spans="1:29" ht="60">
@@ -7526,10 +7529,10 @@
         <v>239</v>
       </c>
       <c r="Y33" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="Z33" s="6" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="AA33" t="s">
         <v>256</v>
@@ -7538,7 +7541,7 @@
         <v>381</v>
       </c>
       <c r="AC33" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="34" spans="1:29" ht="60">
@@ -7618,7 +7621,7 @@
         <v>254</v>
       </c>
       <c r="Z34" s="6" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="AA34" t="s">
         <v>255</v>
@@ -7627,7 +7630,7 @@
         <v>527</v>
       </c>
       <c r="AC34" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="35" spans="1:29" ht="75">
@@ -7707,7 +7710,7 @@
         <v>258</v>
       </c>
       <c r="Z35" s="6" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="AA35" t="s">
         <v>259</v>
@@ -7716,7 +7719,7 @@
         <v>527</v>
       </c>
       <c r="AC35" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="36" spans="1:29" ht="60">
@@ -7796,7 +7799,7 @@
         <v>269</v>
       </c>
       <c r="Z36" s="6" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="AA36" t="s">
         <v>270</v>
@@ -7805,7 +7808,7 @@
         <v>527</v>
       </c>
       <c r="AC36" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="37" spans="1:29" ht="90">
@@ -7882,10 +7885,10 @@
         <v>276</v>
       </c>
       <c r="Y37" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="Z37" s="6" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="AA37" t="s">
         <v>277</v>
@@ -7894,7 +7897,7 @@
         <v>382</v>
       </c>
       <c r="AC37" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="38" spans="1:29" ht="75">
@@ -7974,7 +7977,7 @@
         <v>281</v>
       </c>
       <c r="Z38" s="6" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="AA38" t="s">
         <v>282</v>
@@ -7983,7 +7986,7 @@
         <v>382</v>
       </c>
       <c r="AC38" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="39" spans="1:29" ht="60">
@@ -8060,10 +8063,10 @@
         <v>286</v>
       </c>
       <c r="Y39" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="Z39" s="6" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="AA39" t="s">
         <v>287</v>
@@ -8072,7 +8075,7 @@
         <v>382</v>
       </c>
       <c r="AC39" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="40" spans="1:29" ht="90">
@@ -8152,7 +8155,7 @@
         <v>292</v>
       </c>
       <c r="Z40" s="6" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="AA40" t="s">
         <v>293</v>
@@ -8161,7 +8164,7 @@
         <v>382</v>
       </c>
       <c r="AC40" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="41" spans="1:29" ht="45">
@@ -8238,10 +8241,10 @@
         <v>300</v>
       </c>
       <c r="Y41" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="Z41" s="6" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="AA41" t="s">
         <v>301</v>
@@ -8250,7 +8253,7 @@
         <v>377</v>
       </c>
       <c r="AC41" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="42" spans="1:29" ht="75">
@@ -8330,7 +8333,7 @@
         <v>309</v>
       </c>
       <c r="Z42" s="6" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="AA42" t="s">
         <v>310</v>
@@ -8339,7 +8342,7 @@
         <v>377</v>
       </c>
       <c r="AC42" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="43" spans="1:29" ht="75">
@@ -8419,7 +8422,7 @@
         <v>315</v>
       </c>
       <c r="Z43" s="6" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="AA43" t="s">
         <v>316</v>
@@ -8428,7 +8431,7 @@
         <v>377</v>
       </c>
       <c r="AC43" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="44" spans="1:29" ht="60">
@@ -8508,7 +8511,7 @@
         <v>324</v>
       </c>
       <c r="Z44" s="6" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="AA44" t="s">
         <v>325</v>
@@ -8517,7 +8520,7 @@
         <v>383</v>
       </c>
       <c r="AC44" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="45" spans="1:29" ht="90">
@@ -8597,7 +8600,7 @@
         <v>331</v>
       </c>
       <c r="Z45" s="6" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="AA45" t="s">
         <v>326</v>
@@ -8606,7 +8609,7 @@
         <v>383</v>
       </c>
       <c r="AC45" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="46" spans="1:29" ht="90">
@@ -8686,7 +8689,7 @@
         <v>389</v>
       </c>
       <c r="Z46" s="6" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="AA46" s="2" t="s">
         <v>386</v>
@@ -8695,7 +8698,7 @@
         <v>478</v>
       </c>
       <c r="AC46" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="47" spans="1:29" ht="75">
@@ -8775,7 +8778,7 @@
         <v>390</v>
       </c>
       <c r="Z47" s="6" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="AA47" s="2" t="s">
         <v>391</v>
@@ -8784,7 +8787,7 @@
         <v>377</v>
       </c>
       <c r="AC47" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="48" spans="1:29" ht="75">
@@ -8864,7 +8867,7 @@
         <v>393</v>
       </c>
       <c r="Z48" s="6" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="AA48" s="2" t="s">
         <v>394</v>
@@ -8873,7 +8876,7 @@
         <v>492</v>
       </c>
       <c r="AC48" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="49" spans="1:29" ht="75">
@@ -8953,7 +8956,7 @@
         <v>396</v>
       </c>
       <c r="Z49" s="6" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="AA49" s="2" t="s">
         <v>397</v>
@@ -8962,7 +8965,7 @@
         <v>504</v>
       </c>
       <c r="AC49" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="50" spans="1:29" ht="75">
@@ -9042,7 +9045,7 @@
         <v>511</v>
       </c>
       <c r="Z50" s="6" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="AA50" s="2" t="s">
         <v>400</v>
@@ -9051,7 +9054,7 @@
         <v>507</v>
       </c>
       <c r="AC50" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="51" spans="1:29" ht="75">
@@ -9131,7 +9134,7 @@
         <v>517</v>
       </c>
       <c r="Z51" s="6" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="AA51" s="2" t="s">
         <v>401</v>
@@ -9140,7 +9143,7 @@
         <v>507</v>
       </c>
       <c r="AC51" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="52" spans="1:29" ht="75">
@@ -9220,14 +9223,14 @@
         <v>512</v>
       </c>
       <c r="Z52" s="6" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="AA52" s="2"/>
       <c r="AB52" t="s">
         <v>507</v>
       </c>
       <c r="AC52" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="53" spans="1:29" ht="90">
@@ -9307,7 +9310,7 @@
         <v>518</v>
       </c>
       <c r="Z53" s="6" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="AA53" s="2" t="s">
         <v>403</v>
@@ -9316,7 +9319,7 @@
         <v>377</v>
       </c>
       <c r="AC53" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="54" spans="1:29" ht="60">
@@ -9396,7 +9399,7 @@
         <v>525</v>
       </c>
       <c r="Z54" s="6" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="AA54" s="2" t="s">
         <v>405</v>
@@ -9405,7 +9408,7 @@
         <v>527</v>
       </c>
       <c r="AC54" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="55" spans="1:29" ht="60">
@@ -9485,7 +9488,7 @@
         <v>534</v>
       </c>
       <c r="Z55" s="6" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="AA55" s="2" t="s">
         <v>407</v>
@@ -9494,7 +9497,7 @@
         <v>527</v>
       </c>
       <c r="AC55" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="56" spans="1:29" ht="90">
@@ -9574,7 +9577,7 @@
         <v>544</v>
       </c>
       <c r="Z56" s="6" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="AA56" s="2" t="s">
         <v>545</v>
@@ -9583,7 +9586,7 @@
         <v>527</v>
       </c>
       <c r="AC56" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="57" spans="1:29" ht="60">
@@ -9663,7 +9666,7 @@
         <v>556</v>
       </c>
       <c r="Z57" s="6" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="AA57" s="2" t="s">
         <v>409</v>
@@ -9672,7 +9675,7 @@
         <v>527</v>
       </c>
       <c r="AC57" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="58" spans="1:29" ht="45">
@@ -9761,7 +9764,7 @@
         <v>377</v>
       </c>
       <c r="AC58" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="59" spans="1:29" ht="90">
@@ -9841,7 +9844,7 @@
         <v>571</v>
       </c>
       <c r="Z59" s="6" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="AA59" s="2" t="s">
         <v>413</v>
@@ -9850,7 +9853,7 @@
         <v>377</v>
       </c>
       <c r="AC59" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="60" spans="1:29" ht="60">
@@ -9939,7 +9942,7 @@
         <v>377</v>
       </c>
       <c r="AC60" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="61" spans="1:29" ht="45">
@@ -10028,7 +10031,7 @@
         <v>492</v>
       </c>
       <c r="AC61" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="62" spans="1:29" ht="60">
@@ -10117,12 +10120,12 @@
         <v>492</v>
       </c>
       <c r="AC62" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="63" spans="1:29" ht="75">
       <c r="A63" s="4" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="B63" t="s">
         <v>418</v>
@@ -10206,12 +10209,12 @@
         <v>590</v>
       </c>
       <c r="AC63" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="64" spans="1:29" ht="45">
       <c r="A64" s="4" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="B64" t="s">
         <v>594</v>
@@ -10286,16 +10289,16 @@
         <v>602</v>
       </c>
       <c r="Z64" s="6" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="AA64" s="2" t="s">
         <v>421</v>
       </c>
       <c r="AB64" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="AC64" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="65" spans="1:29" ht="75">
@@ -10384,7 +10387,7 @@
         <v>377</v>
       </c>
       <c r="AC65" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="66" spans="1:29" ht="45">
@@ -10473,7 +10476,7 @@
         <v>716</v>
       </c>
       <c r="AC66" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="67" spans="1:29" ht="75">
@@ -10553,7 +10556,7 @@
         <v>624</v>
       </c>
       <c r="Z67" s="6" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="AA67" s="2" t="s">
         <v>427</v>
@@ -10562,7 +10565,7 @@
         <v>627</v>
       </c>
       <c r="AC67" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="68" spans="1:29" ht="75">
@@ -10642,7 +10645,7 @@
         <v>629</v>
       </c>
       <c r="Z68" s="6" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="AA68" s="2" t="s">
         <v>430</v>
@@ -10651,7 +10654,7 @@
         <v>627</v>
       </c>
       <c r="AC68" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="69" spans="1:29" ht="90">
@@ -10728,10 +10731,10 @@
         <v>636</v>
       </c>
       <c r="Y69" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="Z69" s="6" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="AA69" s="2" t="s">
         <v>432</v>
@@ -10740,7 +10743,7 @@
         <v>717</v>
       </c>
       <c r="AC69" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="70" spans="1:29" ht="90">
@@ -10820,7 +10823,7 @@
         <v>644</v>
       </c>
       <c r="Z70" s="6" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="AA70" s="2" t="s">
         <v>434</v>
@@ -10829,7 +10832,7 @@
         <v>718</v>
       </c>
       <c r="AC70" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="71" spans="1:29" ht="60">
@@ -10918,7 +10921,7 @@
         <v>719</v>
       </c>
       <c r="AC71" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="72" spans="1:29" ht="45">
@@ -11007,7 +11010,7 @@
         <v>720</v>
       </c>
       <c r="AC72" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="73" spans="1:29" ht="60">
@@ -11096,7 +11099,7 @@
         <v>721</v>
       </c>
       <c r="AC73" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="74" spans="1:29" ht="60">
@@ -11173,7 +11176,7 @@
         <v>672</v>
       </c>
       <c r="Y74" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="Z74" s="6" t="s">
         <v>673</v>
@@ -11185,7 +11188,7 @@
         <v>721</v>
       </c>
       <c r="AC74" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="75" spans="1:29" ht="60">
@@ -11271,10 +11274,10 @@
         <v>678</v>
       </c>
       <c r="AB75" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="AC75" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="76" spans="1:29" ht="90">
@@ -11354,7 +11357,7 @@
         <v>683</v>
       </c>
       <c r="Z76" s="6" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="AA76" s="2" t="s">
         <v>443</v>
@@ -11363,7 +11366,7 @@
         <v>722</v>
       </c>
       <c r="AC76" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="77" spans="1:29" ht="60">
@@ -11440,7 +11443,7 @@
         <v>688</v>
       </c>
       <c r="Y77" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="Z77" s="6" t="s">
         <v>689</v>
@@ -11452,7 +11455,7 @@
         <v>723</v>
       </c>
       <c r="AC77" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="78" spans="1:29" ht="45">
@@ -11541,7 +11544,7 @@
         <v>527</v>
       </c>
       <c r="AC78" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="79" spans="1:29" ht="45">
@@ -11618,7 +11621,7 @@
         <v>705</v>
       </c>
       <c r="Y79" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="Z79" s="6" t="s">
         <v>706</v>
@@ -11630,7 +11633,7 @@
         <v>724</v>
       </c>
       <c r="AC79" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="80" spans="1:29" ht="75">
@@ -11707,7 +11710,7 @@
         <v>711</v>
       </c>
       <c r="Y80" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="Z80" s="6" t="s">
         <v>712</v>
@@ -11719,7 +11722,7 @@
         <v>725</v>
       </c>
       <c r="AC80" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="81" spans="1:29" ht="60">
@@ -11808,18 +11811,18 @@
         <v>485</v>
       </c>
       <c r="AC81" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="82" spans="1:29" ht="75">
       <c r="A82" s="4" t="s">
-        <v>727</v>
+        <v>956</v>
       </c>
       <c r="B82" t="s">
+        <v>955</v>
+      </c>
+      <c r="C82" t="s">
         <v>728</v>
-      </c>
-      <c r="C82" t="s">
-        <v>729</v>
       </c>
       <c r="D82" t="s">
         <v>72</v>
@@ -11846,16 +11849,16 @@
         <v>106</v>
       </c>
       <c r="L82" t="s">
+        <v>729</v>
+      </c>
+      <c r="M82" t="s">
+        <v>106</v>
+      </c>
+      <c r="N82" t="s">
         <v>730</v>
       </c>
-      <c r="M82" t="s">
-        <v>106</v>
-      </c>
-      <c r="N82" t="s">
+      <c r="O82" t="s">
         <v>731</v>
-      </c>
-      <c r="O82" t="s">
-        <v>732</v>
       </c>
       <c r="P82" t="s">
         <v>106</v>
@@ -11882,33 +11885,33 @@
         <v>15</v>
       </c>
       <c r="X82" t="s">
+        <v>732</v>
+      </c>
+      <c r="Y82" t="s">
         <v>733</v>
       </c>
-      <c r="Y82" t="s">
+      <c r="Z82" s="6" t="s">
+        <v>736</v>
+      </c>
+      <c r="AA82" t="s">
         <v>734</v>
       </c>
-      <c r="Z82" s="6" t="s">
-        <v>737</v>
-      </c>
-      <c r="AA82" t="s">
+      <c r="AB82" t="s">
         <v>735</v>
       </c>
-      <c r="AB82" t="s">
-        <v>736</v>
-      </c>
       <c r="AC82" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="83" spans="1:29" ht="75">
       <c r="A83" s="7" t="s">
+        <v>758</v>
+      </c>
+      <c r="B83" t="s">
         <v>759</v>
       </c>
-      <c r="B83" t="s">
+      <c r="C83" t="s">
         <v>760</v>
-      </c>
-      <c r="C83" t="s">
-        <v>761</v>
       </c>
       <c r="D83" t="s">
         <v>72</v>
@@ -11929,22 +11932,22 @@
         <v>106</v>
       </c>
       <c r="J83" t="s">
+        <v>761</v>
+      </c>
+      <c r="K83" t="s">
+        <v>106</v>
+      </c>
+      <c r="L83" t="s">
         <v>762</v>
       </c>
-      <c r="K83" t="s">
-        <v>106</v>
-      </c>
-      <c r="L83" t="s">
+      <c r="M83" t="s">
         <v>763</v>
       </c>
-      <c r="M83" t="s">
+      <c r="N83" t="s">
         <v>764</v>
       </c>
-      <c r="N83" t="s">
+      <c r="O83" t="s">
         <v>765</v>
-      </c>
-      <c r="O83" t="s">
-        <v>766</v>
       </c>
       <c r="P83" t="s">
         <v>106</v>
@@ -11971,33 +11974,33 @@
         <v>14</v>
       </c>
       <c r="X83" t="s">
+        <v>766</v>
+      </c>
+      <c r="Y83" t="s">
         <v>767</v>
       </c>
-      <c r="Y83" t="s">
+      <c r="Z83" s="6" t="s">
         <v>768</v>
       </c>
-      <c r="Z83" s="6" t="s">
-        <v>769</v>
-      </c>
       <c r="AA83" t="s">
+        <v>783</v>
+      </c>
+      <c r="AB83" t="s">
         <v>784</v>
       </c>
-      <c r="AB83" t="s">
-        <v>785</v>
-      </c>
       <c r="AC83" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="84" spans="1:29" ht="75">
       <c r="A84" s="7" t="s">
+        <v>769</v>
+      </c>
+      <c r="B84" t="s">
         <v>770</v>
       </c>
-      <c r="B84" t="s">
+      <c r="C84" t="s">
         <v>771</v>
-      </c>
-      <c r="C84" t="s">
-        <v>772</v>
       </c>
       <c r="D84" t="s">
         <v>72</v>
@@ -12006,34 +12009,34 @@
         <v>246</v>
       </c>
       <c r="F84" t="s">
+        <v>772</v>
+      </c>
+      <c r="G84" t="s">
+        <v>106</v>
+      </c>
+      <c r="H84" t="s">
+        <v>106</v>
+      </c>
+      <c r="I84" t="s">
+        <v>106</v>
+      </c>
+      <c r="J84" t="s">
         <v>773</v>
       </c>
-      <c r="G84" t="s">
-        <v>106</v>
-      </c>
-      <c r="H84" t="s">
-        <v>106</v>
-      </c>
-      <c r="I84" t="s">
-        <v>106</v>
-      </c>
-      <c r="J84" t="s">
+      <c r="K84" t="s">
         <v>774</v>
       </c>
-      <c r="K84" t="s">
+      <c r="L84" t="s">
         <v>775</v>
       </c>
-      <c r="L84" t="s">
+      <c r="M84" t="s">
+        <v>106</v>
+      </c>
+      <c r="N84" t="s">
         <v>776</v>
       </c>
-      <c r="M84" t="s">
-        <v>106</v>
-      </c>
-      <c r="N84" t="s">
+      <c r="O84" t="s">
         <v>777</v>
-      </c>
-      <c r="O84" t="s">
-        <v>778</v>
       </c>
       <c r="P84" t="s">
         <v>106</v>
@@ -12060,22 +12063,22 @@
         <v>15</v>
       </c>
       <c r="X84" t="s">
+        <v>778</v>
+      </c>
+      <c r="Y84" t="s">
         <v>779</v>
       </c>
-      <c r="Y84" t="s">
+      <c r="Z84" s="6" t="s">
         <v>780</v>
       </c>
-      <c r="Z84" s="6" t="s">
+      <c r="AA84" t="s">
         <v>781</v>
       </c>
-      <c r="AA84" t="s">
+      <c r="AB84" t="s">
         <v>782</v>
       </c>
-      <c r="AB84" t="s">
-        <v>783</v>
-      </c>
       <c r="AC84" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
   </sheetData>
@@ -12121,13 +12124,13 @@
         <v>344</v>
       </c>
       <c r="I1" s="3" t="s">
+        <v>943</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>944</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>945</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>946</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>94</v>
@@ -12176,7 +12179,7 @@
         <v>110</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="60">
@@ -12204,7 +12207,7 @@
         <v>5</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="K3" t="s">
         <v>452</v>
@@ -12216,7 +12219,7 @@
         <v>111</v>
       </c>
       <c r="O3" s="6" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="105">
@@ -12256,7 +12259,7 @@
         <v>112</v>
       </c>
       <c r="O4" s="6" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="75">
@@ -12296,7 +12299,7 @@
         <v>113</v>
       </c>
       <c r="O5" s="6" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="75">
@@ -12330,7 +12333,7 @@
         <v>399</v>
       </c>
       <c r="L6" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="M6" s="8" t="s">
         <v>27</v>
@@ -12339,7 +12342,7 @@
         <v>114</v>
       </c>
       <c r="O6" s="6" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="75">
@@ -12379,7 +12382,7 @@
         <v>115</v>
       </c>
       <c r="O7" s="6" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="60">
@@ -12419,7 +12422,7 @@
         <v>116</v>
       </c>
       <c r="O8" s="6" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="75">
@@ -12447,7 +12450,7 @@
         <v>83</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="K9" t="s">
         <v>402</v>
@@ -12459,7 +12462,7 @@
         <v>117</v>
       </c>
       <c r="O9" s="6" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="75">
@@ -12487,7 +12490,7 @@
         <v>158</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="K10" t="s">
         <v>528</v>
@@ -12499,7 +12502,7 @@
         <v>118</v>
       </c>
       <c r="O10" s="6" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="75">
@@ -12539,7 +12542,7 @@
         <v>119</v>
       </c>
       <c r="O11" s="6" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="45">
@@ -12559,7 +12562,7 @@
         <v>120</v>
       </c>
       <c r="O12" s="6" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="60">
@@ -12579,7 +12582,7 @@
         <v>121</v>
       </c>
       <c r="O13" s="6" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="75">
@@ -12599,7 +12602,7 @@
         <v>122</v>
       </c>
       <c r="O14" s="6" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="60">
@@ -12619,7 +12622,7 @@
         <v>123</v>
       </c>
       <c r="O15" s="6" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="75">
@@ -12627,7 +12630,7 @@
         <v>271</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="K16" t="s">
         <v>414</v>
@@ -12639,7 +12642,7 @@
         <v>124</v>
       </c>
       <c r="O16" s="6" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="17" spans="9:15" ht="75">
@@ -12659,12 +12662,12 @@
         <v>125</v>
       </c>
       <c r="O17" s="6" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="18" spans="9:15" ht="60">
       <c r="J18" s="2" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="K18" t="s">
         <v>446</v>
@@ -12676,7 +12679,7 @@
         <v>126</v>
       </c>
       <c r="O18" s="6" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="19" spans="9:15" ht="60">
@@ -12693,7 +12696,7 @@
         <v>127</v>
       </c>
       <c r="O19" s="6" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="20" spans="9:15" ht="75">
@@ -12710,7 +12713,7 @@
         <v>128</v>
       </c>
       <c r="O20" s="6" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="21" spans="9:15" ht="90">
@@ -12727,7 +12730,7 @@
         <v>129</v>
       </c>
       <c r="O21" s="6" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="22" spans="9:15" ht="75">
@@ -12744,7 +12747,7 @@
         <v>130</v>
       </c>
       <c r="O22" s="6" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="23" spans="9:15" ht="75">
@@ -12761,7 +12764,7 @@
         <v>131</v>
       </c>
       <c r="O23" s="6" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="24" spans="9:15" ht="75">
@@ -12778,7 +12781,7 @@
         <v>166</v>
       </c>
       <c r="O24" s="6" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="25" spans="9:15" ht="75">
@@ -12795,7 +12798,7 @@
         <v>177</v>
       </c>
       <c r="O25" s="6" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="26" spans="9:15" ht="75">
@@ -12809,7 +12812,7 @@
         <v>187</v>
       </c>
       <c r="O26" s="6" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="27" spans="9:15" ht="90">
@@ -12823,7 +12826,7 @@
         <v>191</v>
       </c>
       <c r="O27" s="6" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="28" spans="9:15" ht="75">
@@ -12837,7 +12840,7 @@
         <v>201</v>
       </c>
       <c r="O28" s="6" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="29" spans="9:15" ht="75">
@@ -12851,7 +12854,7 @@
         <v>211</v>
       </c>
       <c r="O29" s="6" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="30" spans="9:15" ht="60">
@@ -12865,7 +12868,7 @@
         <v>221</v>
       </c>
       <c r="O30" s="6" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="31" spans="9:15" ht="75">
@@ -12879,7 +12882,7 @@
         <v>225</v>
       </c>
       <c r="O31" s="6" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="32" spans="9:15" ht="75">
@@ -12893,7 +12896,7 @@
         <v>236</v>
       </c>
       <c r="O32" s="6" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="33" spans="11:15" ht="60">
@@ -12907,7 +12910,7 @@
         <v>239</v>
       </c>
       <c r="O33" s="6" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="34" spans="11:15" ht="60">
@@ -12921,7 +12924,7 @@
         <v>253</v>
       </c>
       <c r="O34" s="6" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="35" spans="11:15" ht="75">
@@ -12935,7 +12938,7 @@
         <v>260</v>
       </c>
       <c r="O35" s="6" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="36" spans="11:15" ht="60">
@@ -12949,7 +12952,7 @@
         <v>268</v>
       </c>
       <c r="O36" s="13" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="37" spans="11:15" ht="90">
@@ -12963,12 +12966,12 @@
         <v>276</v>
       </c>
       <c r="O37" s="6" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="38" spans="11:15" ht="75">
       <c r="K38" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="M38" s="8" t="s">
         <v>278</v>
@@ -12977,12 +12980,12 @@
         <v>280</v>
       </c>
       <c r="O38" s="6" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="39" spans="11:15" ht="60">
       <c r="K39" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="M39" s="8" t="s">
         <v>283</v>
@@ -12991,12 +12994,12 @@
         <v>286</v>
       </c>
       <c r="O39" s="6" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="40" spans="11:15" ht="90">
       <c r="K40" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="M40" s="8" t="s">
         <v>288</v>
@@ -13005,7 +13008,7 @@
         <v>291</v>
       </c>
       <c r="O40" s="6" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="41" spans="11:15" ht="45">
@@ -13016,7 +13019,7 @@
         <v>300</v>
       </c>
       <c r="O41" s="6" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="42" spans="11:15" ht="75">
@@ -13027,7 +13030,7 @@
         <v>308</v>
       </c>
       <c r="O42" s="6" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="43" spans="11:15" ht="75">
@@ -13038,7 +13041,7 @@
         <v>314</v>
       </c>
       <c r="O43" s="6" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="44" spans="11:15" ht="60">
@@ -13049,7 +13052,7 @@
         <v>323</v>
       </c>
       <c r="O44" s="6" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="45" spans="11:15" ht="90">
@@ -13060,7 +13063,7 @@
         <v>330</v>
       </c>
       <c r="O45" s="6" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="46" spans="11:15" ht="90">
@@ -13071,7 +13074,7 @@
         <v>471</v>
       </c>
       <c r="O46" s="6" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="47" spans="11:15" ht="75">
@@ -13082,7 +13085,7 @@
         <v>477</v>
       </c>
       <c r="O47" s="6" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="48" spans="11:15" ht="75">
@@ -13093,7 +13096,7 @@
         <v>491</v>
       </c>
       <c r="O48" s="6" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="49" spans="13:16" ht="75">
@@ -13104,7 +13107,7 @@
         <v>503</v>
       </c>
       <c r="O49" s="6" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="50" spans="13:16" ht="75">
@@ -13115,7 +13118,7 @@
         <v>510</v>
       </c>
       <c r="O50" s="6" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="51" spans="13:16" ht="75">
@@ -13126,7 +13129,7 @@
         <v>516</v>
       </c>
       <c r="O51" s="6" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="52" spans="13:16" ht="60">
@@ -13137,7 +13140,7 @@
         <v>508</v>
       </c>
       <c r="O52" s="6" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="53" spans="13:16" ht="90">
@@ -13148,7 +13151,7 @@
         <v>519</v>
       </c>
       <c r="O53" s="6" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="54" spans="13:16" ht="60">
@@ -13159,7 +13162,7 @@
         <v>526</v>
       </c>
       <c r="O54" s="6" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="P54" s="9"/>
     </row>
@@ -13171,7 +13174,7 @@
         <v>535</v>
       </c>
       <c r="O55" s="6" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="56" spans="13:16" ht="90">
@@ -13182,7 +13185,7 @@
         <v>543</v>
       </c>
       <c r="O56" s="6" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="57" spans="13:16" ht="60">
@@ -13193,7 +13196,7 @@
         <v>555</v>
       </c>
       <c r="O57" s="6" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="58" spans="13:16" ht="45">
@@ -13215,7 +13218,7 @@
         <v>570</v>
       </c>
       <c r="O59" s="6" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="60" spans="13:16" ht="60">
@@ -13304,7 +13307,7 @@
         <v>623</v>
       </c>
       <c r="O67" s="6" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="68" spans="13:16" ht="75">
@@ -13315,7 +13318,7 @@
         <v>628</v>
       </c>
       <c r="O68" s="6" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="69" spans="13:16" ht="90">
@@ -13326,7 +13329,7 @@
         <v>636</v>
       </c>
       <c r="O69" s="6" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="70" spans="13:16" ht="90">
@@ -13337,7 +13340,7 @@
         <v>643</v>
       </c>
       <c r="O70" s="6" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="71" spans="13:16" ht="60">
@@ -13403,7 +13406,7 @@
         <v>682</v>
       </c>
       <c r="O76" s="6" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="77" spans="13:16" ht="60">
@@ -13462,40 +13465,40 @@
         <v>713</v>
       </c>
       <c r="P81" s="9" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="82" spans="13:16" ht="75">
       <c r="M82" s="8" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="N82" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="O82" s="6" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="83" spans="13:16" ht="75">
       <c r="M83" s="8" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="N83" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="O83" s="6" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="84" spans="13:16" ht="75">
       <c r="M84" s="8" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="N84" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="O84" s="6" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
   </sheetData>
